--- a/Check.xlsx
+++ b/Check.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">Группа проверок/модуль</t>
   </si>
@@ -69,16 +69,58 @@
     <t xml:space="preserve">Вертикальная ориентация</t>
   </si>
   <si>
-    <t xml:space="preserve">Навигация по рзделам приложения</t>
+    <t xml:space="preserve">Раздел "Главная"</t>
   </si>
   <si>
-    <t xml:space="preserve">Раздел "Главная"</t>
+    <t xml:space="preserve">Переход на страницу "Новости"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переход на страницу "Новости" через верхнее меню</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переход на страницу "О приложении"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переход на страницу "Тематические цитаты"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выход из авторизованной зоны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раздел "О приложении"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переход на главную страницу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раздел "Тематические цитаты"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разворачивание\сворачивание цитаты</t>
   </si>
   <si>
     <t xml:space="preserve">Раздел "Новости"</t>
   </si>
   <si>
-    <t xml:space="preserve">Раздел "О приложении"</t>
+    <t xml:space="preserve">Сортировка новостей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">использование фильтра нововстей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">обновление списка нововстей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Создание новости</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реактирование новости</t>
+  </si>
+  <si>
+    <t xml:space="preserve">удаление новости</t>
+  </si>
+  <si>
+    <t xml:space="preserve">снятие новости с публикации\публикация новости</t>
   </si>
   <si>
     <t xml:space="preserve">Совместимость приложения с темами ОС</t>
@@ -145,7 +187,7 @@
   <fonts count="5">
     <font>
       <sz val="10.000000"/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -160,7 +202,6 @@
     </font>
     <font/>
     <font>
-      <color indexed="64"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -212,103 +253,103 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="none"/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="none"/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="none"/>
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left style="none"/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="none"/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -329,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -353,20 +394,45 @@
     <xf fontId="2" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="3" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="3" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="3" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="3" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="4" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf fontId="2" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="6" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="4" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="6" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -906,7 +972,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1042,7 +1108,7 @@
       <c r="A12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -1051,8 +1117,8 @@
       <c r="D12" s="8"/>
     </row>
     <row r="13">
-      <c r="A13" s="14"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -1061,8 +1127,8 @@
       <c r="D13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -1071,11 +1137,9 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>6</v>
@@ -1083,9 +1147,9 @@
       <c r="D15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="15"/>
-      <c r="B16" s="12" t="s">
-        <v>24</v>
+      <c r="A16" s="19"/>
+      <c r="B16" t="s">
+        <v>23</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>6</v>
@@ -1093,11 +1157,11 @@
       <c r="D16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>25</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>6</v>
@@ -1105,9 +1169,9 @@
       <c r="D17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="14"/>
-      <c r="B18" s="12" t="s">
-        <v>27</v>
+      <c r="A18" s="20"/>
+      <c r="B18" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>6</v>
@@ -1115,21 +1179,21 @@
       <c r="D18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="15"/>
-      <c r="B19" s="12" t="s">
-        <v>28</v>
+      <c r="A19" s="20"/>
+      <c r="B19" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>31</v>
+      <c r="A20" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>6</v>
@@ -1137,9 +1201,9 @@
       <c r="D20" s="8"/>
     </row>
     <row r="21">
-      <c r="A21" s="19"/>
-      <c r="B21" s="12" t="s">
-        <v>32</v>
+      <c r="A21" s="20"/>
+      <c r="B21" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>6</v>
@@ -1147,9 +1211,9 @@
       <c r="D21" s="8"/>
     </row>
     <row r="22">
-      <c r="A22" s="19"/>
-      <c r="B22" s="12" t="s">
-        <v>33</v>
+      <c r="A22" s="20"/>
+      <c r="B22" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>6</v>
@@ -1157,11 +1221,9 @@
       <c r="D22" s="8"/>
     </row>
     <row r="23">
-      <c r="A23" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>35</v>
+      <c r="A23" s="20"/>
+      <c r="B23" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>6</v>
@@ -1169,9 +1231,11 @@
       <c r="D23" s="8"/>
     </row>
     <row r="24">
-      <c r="A24" s="21"/>
-      <c r="B24" s="12" t="s">
-        <v>36</v>
+      <c r="A24" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>6</v>
@@ -1179,9 +1243,9 @@
       <c r="D24" s="8"/>
     </row>
     <row r="25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="12" t="s">
-        <v>37</v>
+      <c r="A25" s="20"/>
+      <c r="B25" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>6</v>
@@ -1189,11 +1253,9 @@
       <c r="D25" s="8"/>
     </row>
     <row r="26">
-      <c r="A26" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>39</v>
+      <c r="A26" s="20"/>
+      <c r="B26" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>6</v>
@@ -1201,3873 +1263,4076 @@
       <c r="D26" s="8"/>
     </row>
     <row r="27">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="20"/>
+      <c r="B28" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="20"/>
+      <c r="B29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="20"/>
+      <c r="B30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="20"/>
+      <c r="B31" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="20"/>
+      <c r="B32" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="20"/>
+      <c r="B33" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="15"/>
+      <c r="B35" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="14"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="14"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="14"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="14"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="14"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="14"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="14"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="14"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="14"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="8"/>
+      <c r="C36" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D36" s="8"/>
     </row>
     <row r="37">
-      <c r="A37" s="15"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="8"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D37" s="8"/>
     </row>
     <row r="38">
-      <c r="A38" s="23"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="8"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" ht="25.5" customHeight="1">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="8"/>
+    <row r="39">
+      <c r="A39" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" ht="22.5" customHeight="1">
-      <c r="A40" s="15"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="8"/>
+    <row r="40">
+      <c r="A40" s="28"/>
+      <c r="B40" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D40" s="8"/>
     </row>
     <row r="41">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="8"/>
     </row>
     <row r="42">
-      <c r="A42" s="26"/>
-      <c r="B42" s="25"/>
+      <c r="A42" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="8"/>
     </row>
     <row r="43">
-      <c r="A43" s="26"/>
-      <c r="B43" s="25"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="8"/>
     </row>
     <row r="44">
-      <c r="A44" s="26"/>
-      <c r="B44" s="25"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="8"/>
     </row>
     <row r="45">
-      <c r="A45" s="26"/>
-      <c r="B45" s="25"/>
+      <c r="A45" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="8"/>
     </row>
     <row r="46">
-      <c r="A46" s="26"/>
-      <c r="B46" s="25"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="8"/>
     </row>
     <row r="47">
-      <c r="A47" s="26"/>
-      <c r="B47" s="25"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
     </row>
     <row r="48">
-      <c r="A48" s="26"/>
-      <c r="B48" s="25"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
     </row>
     <row r="49">
-      <c r="A49" s="26"/>
-      <c r="B49" s="25"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
     </row>
     <row r="50">
-      <c r="A50" s="26"/>
-      <c r="B50" s="25"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
     </row>
     <row r="51">
-      <c r="A51" s="26"/>
-      <c r="B51" s="25"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
     </row>
     <row r="52">
-      <c r="A52" s="26"/>
-      <c r="B52" s="25"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
     </row>
     <row r="53">
-      <c r="A53" s="26"/>
-      <c r="B53" s="25"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
     </row>
     <row r="54">
-      <c r="A54" s="26"/>
-      <c r="B54" s="25"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
     </row>
     <row r="55">
-      <c r="A55" s="26"/>
-      <c r="B55" s="25"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
     </row>
     <row r="56">
-      <c r="A56" s="26"/>
-      <c r="B56" s="25"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
     </row>
     <row r="57">
-      <c r="A57" s="26"/>
-      <c r="B57" s="25"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="26"/>
-      <c r="B58" s="25"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="26"/>
-      <c r="B59" s="25"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" ht="25.5" customHeight="1">
+      <c r="A58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" ht="22.5" customHeight="1">
+      <c r="A59" s="15"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
     </row>
     <row r="60">
-      <c r="A60" s="26"/>
-      <c r="B60" s="25"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="34"/>
     </row>
     <row r="61">
-      <c r="A61" s="26"/>
-      <c r="B61" s="25"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="34"/>
     </row>
     <row r="62">
-      <c r="A62" s="26"/>
-      <c r="B62" s="25"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="34"/>
     </row>
     <row r="63">
-      <c r="A63" s="26"/>
-      <c r="B63" s="25"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="34"/>
     </row>
     <row r="64">
-      <c r="A64" s="26"/>
-      <c r="B64" s="25"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="34"/>
     </row>
     <row r="65">
-      <c r="A65" s="26"/>
-      <c r="B65" s="25"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="34"/>
     </row>
     <row r="66">
-      <c r="A66" s="26"/>
-      <c r="B66" s="25"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="34"/>
     </row>
     <row r="67">
-      <c r="A67" s="26"/>
-      <c r="B67" s="25"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="34"/>
     </row>
     <row r="68">
-      <c r="A68" s="26"/>
-      <c r="B68" s="25"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="34"/>
     </row>
     <row r="69">
-      <c r="A69" s="26"/>
-      <c r="B69" s="25"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="34"/>
     </row>
     <row r="70">
-      <c r="A70" s="26"/>
-      <c r="B70" s="25"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="34"/>
     </row>
     <row r="71">
-      <c r="A71" s="26"/>
-      <c r="B71" s="25"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="34"/>
     </row>
     <row r="72">
-      <c r="A72" s="26"/>
-      <c r="B72" s="25"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="34"/>
     </row>
     <row r="73">
-      <c r="A73" s="26"/>
-      <c r="B73" s="25"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="34"/>
     </row>
     <row r="74">
-      <c r="A74" s="26"/>
-      <c r="B74" s="25"/>
+      <c r="A74" s="35"/>
+      <c r="B74" s="34"/>
     </row>
     <row r="75">
-      <c r="A75" s="26"/>
-      <c r="B75" s="25"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="34"/>
     </row>
     <row r="76">
-      <c r="A76" s="26"/>
-      <c r="B76" s="25"/>
+      <c r="A76" s="35"/>
+      <c r="B76" s="34"/>
     </row>
     <row r="77">
-      <c r="A77" s="26"/>
-      <c r="B77" s="25"/>
+      <c r="A77" s="35"/>
+      <c r="B77" s="34"/>
     </row>
     <row r="78">
-      <c r="A78" s="26"/>
-      <c r="B78" s="25"/>
+      <c r="A78" s="35"/>
+      <c r="B78" s="34"/>
     </row>
     <row r="79">
-      <c r="A79" s="26"/>
-      <c r="B79" s="25"/>
+      <c r="A79" s="35"/>
+      <c r="B79" s="34"/>
     </row>
     <row r="80">
-      <c r="A80" s="26"/>
-      <c r="B80" s="25"/>
+      <c r="A80" s="35"/>
+      <c r="B80" s="34"/>
     </row>
     <row r="81">
-      <c r="A81" s="26"/>
-      <c r="B81" s="25"/>
+      <c r="A81" s="35"/>
+      <c r="B81" s="34"/>
     </row>
     <row r="82">
-      <c r="A82" s="26"/>
-      <c r="B82" s="25"/>
+      <c r="A82" s="35"/>
+      <c r="B82" s="34"/>
     </row>
     <row r="83">
-      <c r="A83" s="26"/>
-      <c r="B83" s="25"/>
+      <c r="A83" s="35"/>
+      <c r="B83" s="34"/>
     </row>
     <row r="84">
-      <c r="A84" s="26"/>
-      <c r="B84" s="25"/>
+      <c r="A84" s="35"/>
+      <c r="B84" s="34"/>
     </row>
     <row r="85">
-      <c r="A85" s="26"/>
-      <c r="B85" s="25"/>
+      <c r="A85" s="35"/>
+      <c r="B85" s="34"/>
     </row>
     <row r="86">
-      <c r="A86" s="26"/>
-      <c r="B86" s="25"/>
+      <c r="A86" s="35"/>
+      <c r="B86" s="34"/>
     </row>
     <row r="87">
-      <c r="A87" s="26"/>
-      <c r="B87" s="25"/>
+      <c r="A87" s="35"/>
+      <c r="B87" s="34"/>
     </row>
     <row r="88">
-      <c r="A88" s="26"/>
-      <c r="B88" s="25"/>
+      <c r="A88" s="35"/>
+      <c r="B88" s="34"/>
     </row>
     <row r="89">
-      <c r="A89" s="26"/>
-      <c r="B89" s="25"/>
+      <c r="A89" s="35"/>
+      <c r="B89" s="34"/>
     </row>
     <row r="90">
-      <c r="A90" s="26"/>
-      <c r="B90" s="25"/>
+      <c r="A90" s="35"/>
+      <c r="B90" s="34"/>
     </row>
     <row r="91">
-      <c r="A91" s="26"/>
-      <c r="B91" s="25"/>
+      <c r="A91" s="35"/>
+      <c r="B91" s="34"/>
     </row>
     <row r="92">
-      <c r="A92" s="26"/>
-      <c r="B92" s="25"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="34"/>
     </row>
     <row r="93">
-      <c r="A93" s="26"/>
-      <c r="B93" s="25"/>
+      <c r="A93" s="35"/>
+      <c r="B93" s="34"/>
     </row>
     <row r="94">
-      <c r="A94" s="26"/>
-      <c r="B94" s="25"/>
+      <c r="A94" s="35"/>
+      <c r="B94" s="34"/>
     </row>
     <row r="95">
-      <c r="A95" s="26"/>
-      <c r="B95" s="25"/>
+      <c r="A95" s="35"/>
+      <c r="B95" s="34"/>
     </row>
     <row r="96">
-      <c r="A96" s="26"/>
-      <c r="B96" s="25"/>
+      <c r="A96" s="35"/>
+      <c r="B96" s="34"/>
     </row>
     <row r="97">
-      <c r="A97" s="26"/>
-      <c r="B97" s="25"/>
+      <c r="A97" s="35"/>
+      <c r="B97" s="34"/>
     </row>
     <row r="98">
-      <c r="A98" s="26"/>
-      <c r="B98" s="25"/>
+      <c r="A98" s="35"/>
+      <c r="B98" s="34"/>
     </row>
     <row r="99">
-      <c r="A99" s="26"/>
-      <c r="B99" s="25"/>
+      <c r="A99" s="35"/>
+      <c r="B99" s="34"/>
     </row>
     <row r="100">
-      <c r="A100" s="26"/>
-      <c r="B100" s="25"/>
+      <c r="A100" s="35"/>
+      <c r="B100" s="34"/>
     </row>
     <row r="101">
-      <c r="A101" s="26"/>
-      <c r="B101" s="25"/>
+      <c r="A101" s="35"/>
+      <c r="B101" s="34"/>
     </row>
     <row r="102">
-      <c r="A102" s="26"/>
-      <c r="B102" s="25"/>
+      <c r="A102" s="35"/>
+      <c r="B102" s="34"/>
     </row>
     <row r="103">
-      <c r="A103" s="26"/>
-      <c r="B103" s="25"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="34"/>
     </row>
     <row r="104">
-      <c r="A104" s="26"/>
-      <c r="B104" s="25"/>
+      <c r="A104" s="35"/>
+      <c r="B104" s="34"/>
     </row>
     <row r="105">
-      <c r="A105" s="26"/>
-      <c r="B105" s="25"/>
+      <c r="A105" s="35"/>
+      <c r="B105" s="34"/>
     </row>
     <row r="106">
-      <c r="A106" s="26"/>
-      <c r="B106" s="25"/>
+      <c r="A106" s="35"/>
+      <c r="B106" s="34"/>
     </row>
     <row r="107">
-      <c r="A107" s="26"/>
-      <c r="B107" s="25"/>
+      <c r="A107" s="35"/>
+      <c r="B107" s="34"/>
     </row>
     <row r="108">
-      <c r="A108" s="26"/>
-      <c r="B108" s="25"/>
+      <c r="A108" s="35"/>
+      <c r="B108" s="34"/>
     </row>
     <row r="109">
-      <c r="A109" s="26"/>
-      <c r="B109" s="25"/>
+      <c r="A109" s="35"/>
+      <c r="B109" s="34"/>
     </row>
     <row r="110">
-      <c r="A110" s="26"/>
-      <c r="B110" s="25"/>
+      <c r="A110" s="35"/>
+      <c r="B110" s="34"/>
     </row>
     <row r="111">
-      <c r="A111" s="26"/>
-      <c r="B111" s="25"/>
+      <c r="A111" s="35"/>
+      <c r="B111" s="34"/>
     </row>
     <row r="112">
-      <c r="A112" s="26"/>
-      <c r="B112" s="25"/>
+      <c r="A112" s="35"/>
+      <c r="B112" s="34"/>
     </row>
     <row r="113">
-      <c r="A113" s="26"/>
-      <c r="B113" s="25"/>
+      <c r="A113" s="35"/>
+      <c r="B113" s="34"/>
     </row>
     <row r="114">
-      <c r="A114" s="26"/>
-      <c r="B114" s="25"/>
+      <c r="A114" s="35"/>
+      <c r="B114" s="34"/>
     </row>
     <row r="115">
-      <c r="A115" s="26"/>
-      <c r="B115" s="25"/>
+      <c r="A115" s="35"/>
+      <c r="B115" s="34"/>
     </row>
     <row r="116">
-      <c r="A116" s="26"/>
-      <c r="B116" s="25"/>
+      <c r="A116" s="35"/>
+      <c r="B116" s="34"/>
     </row>
     <row r="117">
-      <c r="A117" s="26"/>
-      <c r="B117" s="25"/>
+      <c r="A117" s="35"/>
+      <c r="B117" s="34"/>
     </row>
     <row r="118">
-      <c r="A118" s="26"/>
-      <c r="B118" s="25"/>
+      <c r="A118" s="35"/>
+      <c r="B118" s="34"/>
     </row>
     <row r="119">
-      <c r="A119" s="26"/>
-      <c r="B119" s="25"/>
+      <c r="A119" s="35"/>
+      <c r="B119" s="34"/>
     </row>
     <row r="120">
-      <c r="A120" s="26"/>
-      <c r="B120" s="25"/>
+      <c r="A120" s="35"/>
+      <c r="B120" s="34"/>
     </row>
     <row r="121">
-      <c r="A121" s="26"/>
-      <c r="B121" s="25"/>
+      <c r="A121" s="35"/>
+      <c r="B121" s="34"/>
     </row>
     <row r="122">
-      <c r="A122" s="26"/>
-      <c r="B122" s="25"/>
+      <c r="A122" s="35"/>
+      <c r="B122" s="34"/>
     </row>
     <row r="123">
-      <c r="A123" s="26"/>
-      <c r="B123" s="25"/>
+      <c r="A123" s="35"/>
+      <c r="B123" s="34"/>
     </row>
     <row r="124">
-      <c r="A124" s="26"/>
-      <c r="B124" s="25"/>
+      <c r="A124" s="35"/>
+      <c r="B124" s="34"/>
     </row>
     <row r="125">
-      <c r="A125" s="26"/>
-      <c r="B125" s="25"/>
+      <c r="A125" s="35"/>
+      <c r="B125" s="34"/>
     </row>
     <row r="126">
-      <c r="A126" s="26"/>
-      <c r="B126" s="25"/>
+      <c r="A126" s="35"/>
+      <c r="B126" s="34"/>
     </row>
     <row r="127">
-      <c r="A127" s="26"/>
-      <c r="B127" s="25"/>
+      <c r="A127" s="35"/>
+      <c r="B127" s="34"/>
     </row>
     <row r="128">
-      <c r="A128" s="26"/>
-      <c r="B128" s="25"/>
+      <c r="A128" s="35"/>
+      <c r="B128" s="34"/>
     </row>
     <row r="129">
-      <c r="A129" s="26"/>
-      <c r="B129" s="25"/>
+      <c r="A129" s="35"/>
+      <c r="B129" s="34"/>
     </row>
     <row r="130">
-      <c r="A130" s="26"/>
-      <c r="B130" s="25"/>
+      <c r="A130" s="35"/>
+      <c r="B130" s="34"/>
     </row>
     <row r="131">
-      <c r="A131" s="26"/>
-      <c r="B131" s="25"/>
+      <c r="A131" s="35"/>
+      <c r="B131" s="34"/>
     </row>
     <row r="132">
-      <c r="A132" s="26"/>
-      <c r="B132" s="25"/>
+      <c r="A132" s="35"/>
+      <c r="B132" s="34"/>
     </row>
     <row r="133">
-      <c r="A133" s="26"/>
-      <c r="B133" s="25"/>
+      <c r="A133" s="35"/>
+      <c r="B133" s="34"/>
     </row>
     <row r="134">
-      <c r="A134" s="26"/>
-      <c r="B134" s="25"/>
+      <c r="A134" s="35"/>
+      <c r="B134" s="34"/>
     </row>
     <row r="135">
-      <c r="A135" s="26"/>
-      <c r="B135" s="25"/>
+      <c r="A135" s="35"/>
+      <c r="B135" s="34"/>
     </row>
     <row r="136">
-      <c r="A136" s="26"/>
-      <c r="B136" s="25"/>
+      <c r="A136" s="35"/>
+      <c r="B136" s="34"/>
     </row>
     <row r="137">
-      <c r="A137" s="26"/>
-      <c r="B137" s="25"/>
+      <c r="A137" s="35"/>
+      <c r="B137" s="34"/>
     </row>
     <row r="138">
-      <c r="A138" s="26"/>
-      <c r="B138" s="25"/>
+      <c r="A138" s="35"/>
+      <c r="B138" s="34"/>
     </row>
     <row r="139">
-      <c r="A139" s="26"/>
-      <c r="B139" s="25"/>
+      <c r="A139" s="35"/>
+      <c r="B139" s="34"/>
     </row>
     <row r="140">
-      <c r="A140" s="26"/>
-      <c r="B140" s="25"/>
+      <c r="A140" s="35"/>
+      <c r="B140" s="34"/>
     </row>
     <row r="141">
-      <c r="A141" s="26"/>
-      <c r="B141" s="25"/>
+      <c r="A141" s="35"/>
+      <c r="B141" s="34"/>
     </row>
     <row r="142">
-      <c r="A142" s="26"/>
-      <c r="B142" s="25"/>
+      <c r="A142" s="35"/>
+      <c r="B142" s="34"/>
     </row>
     <row r="143">
-      <c r="A143" s="26"/>
-      <c r="B143" s="25"/>
+      <c r="A143" s="35"/>
+      <c r="B143" s="34"/>
     </row>
     <row r="144">
-      <c r="A144" s="26"/>
-      <c r="B144" s="25"/>
+      <c r="A144" s="35"/>
+      <c r="B144" s="34"/>
     </row>
     <row r="145">
-      <c r="A145" s="26"/>
-      <c r="B145" s="25"/>
+      <c r="A145" s="35"/>
+      <c r="B145" s="34"/>
     </row>
     <row r="146">
-      <c r="A146" s="26"/>
-      <c r="B146" s="25"/>
+      <c r="A146" s="35"/>
+      <c r="B146" s="34"/>
     </row>
     <row r="147">
-      <c r="A147" s="26"/>
-      <c r="B147" s="25"/>
+      <c r="A147" s="35"/>
+      <c r="B147" s="34"/>
     </row>
     <row r="148">
-      <c r="A148" s="26"/>
-      <c r="B148" s="25"/>
+      <c r="A148" s="35"/>
+      <c r="B148" s="34"/>
     </row>
     <row r="149">
-      <c r="A149" s="26"/>
-      <c r="B149" s="25"/>
+      <c r="A149" s="35"/>
+      <c r="B149" s="34"/>
     </row>
     <row r="150">
-      <c r="A150" s="26"/>
-      <c r="B150" s="25"/>
+      <c r="A150" s="35"/>
+      <c r="B150" s="34"/>
     </row>
     <row r="151">
-      <c r="A151" s="26"/>
-      <c r="B151" s="25"/>
+      <c r="A151" s="35"/>
+      <c r="B151" s="34"/>
     </row>
     <row r="152">
-      <c r="A152" s="26"/>
-      <c r="B152" s="25"/>
+      <c r="A152" s="35"/>
+      <c r="B152" s="34"/>
     </row>
     <row r="153">
-      <c r="A153" s="26"/>
-      <c r="B153" s="25"/>
+      <c r="A153" s="35"/>
+      <c r="B153" s="34"/>
     </row>
     <row r="154">
-      <c r="A154" s="26"/>
-      <c r="B154" s="25"/>
+      <c r="A154" s="35"/>
+      <c r="B154" s="34"/>
     </row>
     <row r="155">
-      <c r="A155" s="26"/>
-      <c r="B155" s="25"/>
+      <c r="A155" s="35"/>
+      <c r="B155" s="34"/>
     </row>
     <row r="156">
-      <c r="A156" s="26"/>
-      <c r="B156" s="25"/>
+      <c r="A156" s="35"/>
+      <c r="B156" s="34"/>
     </row>
     <row r="157">
-      <c r="A157" s="26"/>
-      <c r="B157" s="25"/>
+      <c r="A157" s="35"/>
+      <c r="B157" s="34"/>
     </row>
     <row r="158">
-      <c r="A158" s="26"/>
-      <c r="B158" s="25"/>
+      <c r="A158" s="35"/>
+      <c r="B158" s="34"/>
     </row>
     <row r="159">
-      <c r="A159" s="26"/>
-      <c r="B159" s="25"/>
+      <c r="A159" s="35"/>
+      <c r="B159" s="34"/>
     </row>
     <row r="160">
-      <c r="A160" s="26"/>
-      <c r="B160" s="25"/>
+      <c r="A160" s="35"/>
+      <c r="B160" s="34"/>
     </row>
     <row r="161">
-      <c r="A161" s="26"/>
-      <c r="B161" s="25"/>
+      <c r="A161" s="35"/>
+      <c r="B161" s="34"/>
     </row>
     <row r="162">
-      <c r="A162" s="26"/>
-      <c r="B162" s="25"/>
+      <c r="A162" s="35"/>
+      <c r="B162" s="34"/>
     </row>
     <row r="163">
-      <c r="A163" s="26"/>
-      <c r="B163" s="25"/>
+      <c r="A163" s="35"/>
+      <c r="B163" s="34"/>
     </row>
     <row r="164">
-      <c r="A164" s="26"/>
-      <c r="B164" s="25"/>
+      <c r="A164" s="35"/>
+      <c r="B164" s="34"/>
     </row>
     <row r="165">
-      <c r="A165" s="26"/>
-      <c r="B165" s="25"/>
+      <c r="A165" s="35"/>
+      <c r="B165" s="34"/>
     </row>
     <row r="166">
-      <c r="A166" s="26"/>
-      <c r="B166" s="25"/>
+      <c r="A166" s="35"/>
+      <c r="B166" s="34"/>
     </row>
     <row r="167">
-      <c r="A167" s="26"/>
-      <c r="B167" s="25"/>
+      <c r="A167" s="35"/>
+      <c r="B167" s="34"/>
     </row>
     <row r="168">
-      <c r="A168" s="26"/>
-      <c r="B168" s="25"/>
+      <c r="A168" s="35"/>
+      <c r="B168" s="34"/>
     </row>
     <row r="169">
-      <c r="A169" s="26"/>
-      <c r="B169" s="25"/>
+      <c r="A169" s="35"/>
+      <c r="B169" s="34"/>
     </row>
     <row r="170">
-      <c r="A170" s="26"/>
-      <c r="B170" s="25"/>
+      <c r="A170" s="35"/>
+      <c r="B170" s="34"/>
     </row>
     <row r="171">
-      <c r="A171" s="26"/>
-      <c r="B171" s="25"/>
+      <c r="A171" s="35"/>
+      <c r="B171" s="34"/>
     </row>
     <row r="172">
-      <c r="A172" s="26"/>
-      <c r="B172" s="25"/>
+      <c r="A172" s="35"/>
+      <c r="B172" s="34"/>
     </row>
     <row r="173">
-      <c r="A173" s="26"/>
-      <c r="B173" s="25"/>
+      <c r="A173" s="35"/>
+      <c r="B173" s="34"/>
     </row>
     <row r="174">
-      <c r="A174" s="26"/>
-      <c r="B174" s="25"/>
+      <c r="A174" s="35"/>
+      <c r="B174" s="34"/>
     </row>
     <row r="175">
-      <c r="A175" s="26"/>
-      <c r="B175" s="25"/>
+      <c r="A175" s="35"/>
+      <c r="B175" s="34"/>
     </row>
     <row r="176">
-      <c r="A176" s="26"/>
-      <c r="B176" s="25"/>
+      <c r="A176" s="35"/>
+      <c r="B176" s="34"/>
     </row>
     <row r="177">
-      <c r="A177" s="26"/>
-      <c r="B177" s="25"/>
+      <c r="A177" s="35"/>
+      <c r="B177" s="34"/>
     </row>
     <row r="178">
-      <c r="A178" s="26"/>
-      <c r="B178" s="25"/>
+      <c r="A178" s="35"/>
+      <c r="B178" s="34"/>
     </row>
     <row r="179">
-      <c r="A179" s="26"/>
-      <c r="B179" s="25"/>
+      <c r="A179" s="35"/>
+      <c r="B179" s="34"/>
     </row>
     <row r="180">
-      <c r="A180" s="26"/>
-      <c r="B180" s="25"/>
+      <c r="A180" s="35"/>
+      <c r="B180" s="34"/>
     </row>
     <row r="181">
-      <c r="A181" s="26"/>
-      <c r="B181" s="25"/>
+      <c r="A181" s="35"/>
+      <c r="B181" s="34"/>
     </row>
     <row r="182">
-      <c r="A182" s="26"/>
-      <c r="B182" s="25"/>
+      <c r="A182" s="35"/>
+      <c r="B182" s="34"/>
     </row>
     <row r="183">
-      <c r="A183" s="26"/>
-      <c r="B183" s="25"/>
+      <c r="A183" s="35"/>
+      <c r="B183" s="34"/>
     </row>
     <row r="184">
-      <c r="A184" s="26"/>
-      <c r="B184" s="25"/>
+      <c r="A184" s="35"/>
+      <c r="B184" s="34"/>
     </row>
     <row r="185">
-      <c r="A185" s="26"/>
-      <c r="B185" s="25"/>
+      <c r="A185" s="35"/>
+      <c r="B185" s="34"/>
     </row>
     <row r="186">
-      <c r="A186" s="26"/>
-      <c r="B186" s="25"/>
+      <c r="A186" s="35"/>
+      <c r="B186" s="34"/>
     </row>
     <row r="187">
-      <c r="A187" s="26"/>
-      <c r="B187" s="25"/>
+      <c r="A187" s="35"/>
+      <c r="B187" s="34"/>
     </row>
     <row r="188">
-      <c r="A188" s="26"/>
-      <c r="B188" s="25"/>
+      <c r="A188" s="35"/>
+      <c r="B188" s="34"/>
     </row>
     <row r="189">
-      <c r="A189" s="26"/>
-      <c r="B189" s="25"/>
+      <c r="A189" s="35"/>
+      <c r="B189" s="34"/>
     </row>
     <row r="190">
-      <c r="A190" s="26"/>
-      <c r="B190" s="25"/>
+      <c r="A190" s="35"/>
+      <c r="B190" s="34"/>
     </row>
     <row r="191">
-      <c r="A191" s="26"/>
-      <c r="B191" s="25"/>
+      <c r="A191" s="35"/>
+      <c r="B191" s="34"/>
     </row>
     <row r="192">
-      <c r="A192" s="26"/>
-      <c r="B192" s="25"/>
+      <c r="A192" s="35"/>
+      <c r="B192" s="34"/>
     </row>
     <row r="193">
-      <c r="A193" s="26"/>
-      <c r="B193" s="25"/>
+      <c r="A193" s="35"/>
+      <c r="B193" s="34"/>
     </row>
     <row r="194">
-      <c r="A194" s="26"/>
-      <c r="B194" s="25"/>
+      <c r="A194" s="35"/>
+      <c r="B194" s="34"/>
     </row>
     <row r="195">
-      <c r="A195" s="26"/>
-      <c r="B195" s="25"/>
+      <c r="A195" s="35"/>
+      <c r="B195" s="34"/>
     </row>
     <row r="196">
-      <c r="A196" s="26"/>
-      <c r="B196" s="25"/>
+      <c r="A196" s="35"/>
+      <c r="B196" s="34"/>
     </row>
     <row r="197">
-      <c r="A197" s="26"/>
-      <c r="B197" s="25"/>
+      <c r="A197" s="35"/>
+      <c r="B197" s="34"/>
     </row>
     <row r="198">
-      <c r="A198" s="26"/>
-      <c r="B198" s="25"/>
+      <c r="A198" s="35"/>
+      <c r="B198" s="34"/>
     </row>
     <row r="199">
-      <c r="A199" s="26"/>
-      <c r="B199" s="25"/>
+      <c r="A199" s="35"/>
+      <c r="B199" s="34"/>
     </row>
     <row r="200">
-      <c r="A200" s="26"/>
-      <c r="B200" s="25"/>
+      <c r="A200" s="35"/>
+      <c r="B200" s="34"/>
     </row>
     <row r="201">
-      <c r="A201" s="26"/>
-      <c r="B201" s="25"/>
+      <c r="A201" s="35"/>
+      <c r="B201" s="34"/>
     </row>
     <row r="202">
-      <c r="A202" s="26"/>
-      <c r="B202" s="25"/>
+      <c r="A202" s="35"/>
+      <c r="B202" s="34"/>
     </row>
     <row r="203">
-      <c r="A203" s="26"/>
-      <c r="B203" s="25"/>
+      <c r="A203" s="35"/>
+      <c r="B203" s="34"/>
     </row>
     <row r="204">
-      <c r="A204" s="26"/>
-      <c r="B204" s="25"/>
+      <c r="A204" s="35"/>
+      <c r="B204" s="34"/>
     </row>
     <row r="205">
-      <c r="A205" s="26"/>
-      <c r="B205" s="25"/>
+      <c r="A205" s="35"/>
+      <c r="B205" s="34"/>
     </row>
     <row r="206">
-      <c r="A206" s="26"/>
-      <c r="B206" s="25"/>
+      <c r="A206" s="35"/>
+      <c r="B206" s="34"/>
     </row>
     <row r="207">
-      <c r="A207" s="26"/>
-      <c r="B207" s="25"/>
+      <c r="A207" s="35"/>
+      <c r="B207" s="34"/>
     </row>
     <row r="208">
-      <c r="A208" s="26"/>
-      <c r="B208" s="25"/>
+      <c r="A208" s="35"/>
+      <c r="B208" s="34"/>
     </row>
     <row r="209">
-      <c r="A209" s="26"/>
-      <c r="B209" s="25"/>
+      <c r="A209" s="35"/>
+      <c r="B209" s="34"/>
     </row>
     <row r="210">
-      <c r="A210" s="26"/>
-      <c r="B210" s="25"/>
+      <c r="A210" s="35"/>
+      <c r="B210" s="34"/>
     </row>
     <row r="211">
-      <c r="A211" s="26"/>
-      <c r="B211" s="25"/>
+      <c r="A211" s="35"/>
+      <c r="B211" s="34"/>
     </row>
     <row r="212">
-      <c r="A212" s="26"/>
-      <c r="B212" s="25"/>
+      <c r="A212" s="35"/>
+      <c r="B212" s="34"/>
     </row>
     <row r="213">
-      <c r="A213" s="26"/>
-      <c r="B213" s="25"/>
+      <c r="A213" s="35"/>
+      <c r="B213" s="34"/>
     </row>
     <row r="214">
-      <c r="A214" s="26"/>
-      <c r="B214" s="25"/>
+      <c r="A214" s="35"/>
+      <c r="B214" s="34"/>
     </row>
     <row r="215">
-      <c r="A215" s="26"/>
-      <c r="B215" s="25"/>
+      <c r="A215" s="35"/>
+      <c r="B215" s="34"/>
     </row>
     <row r="216">
-      <c r="A216" s="26"/>
-      <c r="B216" s="25"/>
+      <c r="A216" s="35"/>
+      <c r="B216" s="34"/>
     </row>
     <row r="217">
-      <c r="A217" s="26"/>
-      <c r="B217" s="25"/>
+      <c r="A217" s="35"/>
+      <c r="B217" s="34"/>
     </row>
     <row r="218">
-      <c r="A218" s="26"/>
-      <c r="B218" s="25"/>
+      <c r="A218" s="35"/>
+      <c r="B218" s="34"/>
     </row>
     <row r="219">
-      <c r="A219" s="26"/>
-      <c r="B219" s="25"/>
+      <c r="A219" s="35"/>
+      <c r="B219" s="34"/>
     </row>
     <row r="220">
-      <c r="A220" s="26"/>
-      <c r="B220" s="25"/>
+      <c r="A220" s="35"/>
+      <c r="B220" s="34"/>
     </row>
     <row r="221">
-      <c r="A221" s="26"/>
-      <c r="B221" s="25"/>
+      <c r="A221" s="35"/>
+      <c r="B221" s="34"/>
     </row>
     <row r="222">
-      <c r="A222" s="26"/>
-      <c r="B222" s="25"/>
+      <c r="A222" s="35"/>
+      <c r="B222" s="34"/>
     </row>
     <row r="223">
-      <c r="A223" s="26"/>
-      <c r="B223" s="25"/>
+      <c r="A223" s="35"/>
+      <c r="B223" s="34"/>
     </row>
     <row r="224">
-      <c r="A224" s="26"/>
-      <c r="B224" s="25"/>
+      <c r="A224" s="35"/>
+      <c r="B224" s="34"/>
     </row>
     <row r="225">
-      <c r="A225" s="26"/>
-      <c r="B225" s="25"/>
+      <c r="A225" s="35"/>
+      <c r="B225" s="34"/>
     </row>
     <row r="226">
-      <c r="A226" s="26"/>
-      <c r="B226" s="25"/>
+      <c r="A226" s="35"/>
+      <c r="B226" s="34"/>
     </row>
     <row r="227">
-      <c r="A227" s="26"/>
-      <c r="B227" s="25"/>
+      <c r="A227" s="35"/>
+      <c r="B227" s="34"/>
     </row>
     <row r="228">
-      <c r="A228" s="26"/>
-      <c r="B228" s="25"/>
+      <c r="A228" s="35"/>
+      <c r="B228" s="34"/>
     </row>
     <row r="229">
-      <c r="A229" s="26"/>
-      <c r="B229" s="25"/>
+      <c r="A229" s="35"/>
+      <c r="B229" s="34"/>
     </row>
     <row r="230">
-      <c r="A230" s="26"/>
-      <c r="B230" s="25"/>
+      <c r="A230" s="35"/>
+      <c r="B230" s="34"/>
     </row>
     <row r="231">
-      <c r="A231" s="26"/>
-      <c r="B231" s="25"/>
+      <c r="A231" s="35"/>
+      <c r="B231" s="34"/>
     </row>
     <row r="232">
-      <c r="A232" s="26"/>
-      <c r="B232" s="25"/>
+      <c r="A232" s="35"/>
+      <c r="B232" s="34"/>
     </row>
     <row r="233">
-      <c r="A233" s="26"/>
-      <c r="B233" s="25"/>
+      <c r="A233" s="35"/>
+      <c r="B233" s="34"/>
     </row>
     <row r="234">
-      <c r="A234" s="26"/>
-      <c r="B234" s="25"/>
+      <c r="A234" s="35"/>
+      <c r="B234" s="34"/>
     </row>
     <row r="235">
-      <c r="A235" s="26"/>
-      <c r="B235" s="25"/>
+      <c r="A235" s="35"/>
+      <c r="B235" s="34"/>
     </row>
     <row r="236">
-      <c r="A236" s="26"/>
-      <c r="B236" s="25"/>
+      <c r="A236" s="35"/>
+      <c r="B236" s="34"/>
     </row>
     <row r="237">
-      <c r="A237" s="26"/>
-      <c r="B237" s="25"/>
+      <c r="A237" s="35"/>
+      <c r="B237" s="34"/>
     </row>
     <row r="238">
-      <c r="A238" s="26"/>
-      <c r="B238" s="25"/>
+      <c r="A238" s="35"/>
+      <c r="B238" s="34"/>
     </row>
     <row r="239">
-      <c r="A239" s="26"/>
-      <c r="B239" s="25"/>
+      <c r="A239" s="35"/>
+      <c r="B239" s="34"/>
     </row>
     <row r="240">
-      <c r="A240" s="26"/>
-      <c r="B240" s="25"/>
+      <c r="A240" s="35"/>
+      <c r="B240" s="34"/>
     </row>
     <row r="241">
-      <c r="A241" s="26"/>
-      <c r="B241" s="25"/>
+      <c r="A241" s="35"/>
+      <c r="B241" s="34"/>
     </row>
     <row r="242">
-      <c r="A242" s="26"/>
-      <c r="B242" s="25"/>
+      <c r="A242" s="35"/>
+      <c r="B242" s="34"/>
     </row>
     <row r="243">
-      <c r="A243" s="26"/>
-      <c r="B243" s="25"/>
+      <c r="A243" s="35"/>
+      <c r="B243" s="34"/>
     </row>
     <row r="244">
-      <c r="A244" s="26"/>
-      <c r="B244" s="25"/>
+      <c r="A244" s="35"/>
+      <c r="B244" s="34"/>
     </row>
     <row r="245">
-      <c r="A245" s="26"/>
-      <c r="B245" s="25"/>
+      <c r="A245" s="35"/>
+      <c r="B245" s="34"/>
     </row>
     <row r="246">
-      <c r="A246" s="26"/>
-      <c r="B246" s="25"/>
+      <c r="A246" s="35"/>
+      <c r="B246" s="34"/>
     </row>
     <row r="247">
-      <c r="A247" s="26"/>
-      <c r="B247" s="25"/>
+      <c r="A247" s="35"/>
+      <c r="B247" s="34"/>
     </row>
     <row r="248">
-      <c r="A248" s="26"/>
-      <c r="B248" s="25"/>
+      <c r="A248" s="35"/>
+      <c r="B248" s="34"/>
     </row>
     <row r="249">
-      <c r="A249" s="26"/>
-      <c r="B249" s="25"/>
+      <c r="A249" s="35"/>
+      <c r="B249" s="34"/>
     </row>
     <row r="250">
-      <c r="A250" s="26"/>
-      <c r="B250" s="25"/>
+      <c r="A250" s="35"/>
+      <c r="B250" s="34"/>
     </row>
     <row r="251">
-      <c r="A251" s="26"/>
-      <c r="B251" s="25"/>
+      <c r="A251" s="35"/>
+      <c r="B251" s="34"/>
     </row>
     <row r="252">
-      <c r="A252" s="26"/>
-      <c r="B252" s="25"/>
+      <c r="A252" s="35"/>
+      <c r="B252" s="34"/>
     </row>
     <row r="253">
-      <c r="A253" s="26"/>
-      <c r="B253" s="25"/>
+      <c r="A253" s="35"/>
+      <c r="B253" s="34"/>
     </row>
     <row r="254">
-      <c r="A254" s="26"/>
-      <c r="B254" s="25"/>
+      <c r="A254" s="35"/>
+      <c r="B254" s="34"/>
     </row>
     <row r="255">
-      <c r="A255" s="26"/>
-      <c r="B255" s="25"/>
+      <c r="A255" s="35"/>
+      <c r="B255" s="34"/>
     </row>
     <row r="256">
-      <c r="A256" s="26"/>
-      <c r="B256" s="25"/>
+      <c r="A256" s="35"/>
+      <c r="B256" s="34"/>
     </row>
     <row r="257">
-      <c r="A257" s="26"/>
-      <c r="B257" s="25"/>
+      <c r="A257" s="35"/>
+      <c r="B257" s="34"/>
     </row>
     <row r="258">
-      <c r="A258" s="26"/>
-      <c r="B258" s="25"/>
+      <c r="A258" s="35"/>
+      <c r="B258" s="34"/>
     </row>
     <row r="259">
-      <c r="A259" s="26"/>
-      <c r="B259" s="25"/>
+      <c r="A259" s="35"/>
+      <c r="B259" s="34"/>
     </row>
     <row r="260">
-      <c r="A260" s="26"/>
-      <c r="B260" s="25"/>
+      <c r="A260" s="35"/>
+      <c r="B260" s="34"/>
     </row>
     <row r="261">
-      <c r="A261" s="26"/>
-      <c r="B261" s="25"/>
+      <c r="A261" s="35"/>
+      <c r="B261" s="34"/>
     </row>
     <row r="262">
-      <c r="A262" s="26"/>
-      <c r="B262" s="25"/>
+      <c r="A262" s="35"/>
+      <c r="B262" s="34"/>
     </row>
     <row r="263">
-      <c r="A263" s="26"/>
-      <c r="B263" s="25"/>
+      <c r="A263" s="35"/>
+      <c r="B263" s="34"/>
     </row>
     <row r="264">
-      <c r="A264" s="26"/>
-      <c r="B264" s="25"/>
+      <c r="A264" s="35"/>
+      <c r="B264" s="34"/>
     </row>
     <row r="265">
-      <c r="A265" s="26"/>
-      <c r="B265" s="25"/>
+      <c r="A265" s="35"/>
+      <c r="B265" s="34"/>
     </row>
     <row r="266">
-      <c r="A266" s="26"/>
-      <c r="B266" s="25"/>
+      <c r="A266" s="35"/>
+      <c r="B266" s="34"/>
     </row>
     <row r="267">
-      <c r="A267" s="26"/>
-      <c r="B267" s="25"/>
+      <c r="A267" s="35"/>
+      <c r="B267" s="34"/>
     </row>
     <row r="268">
-      <c r="A268" s="26"/>
-      <c r="B268" s="25"/>
+      <c r="A268" s="35"/>
+      <c r="B268" s="34"/>
     </row>
     <row r="269">
-      <c r="A269" s="26"/>
-      <c r="B269" s="25"/>
+      <c r="A269" s="35"/>
+      <c r="B269" s="34"/>
     </row>
     <row r="270">
-      <c r="A270" s="26"/>
-      <c r="B270" s="25"/>
+      <c r="A270" s="35"/>
+      <c r="B270" s="34"/>
     </row>
     <row r="271">
-      <c r="A271" s="26"/>
-      <c r="B271" s="25"/>
+      <c r="A271" s="35"/>
+      <c r="B271" s="34"/>
     </row>
     <row r="272">
-      <c r="A272" s="26"/>
-      <c r="B272" s="25"/>
+      <c r="A272" s="35"/>
+      <c r="B272" s="34"/>
     </row>
     <row r="273">
-      <c r="A273" s="26"/>
-      <c r="B273" s="25"/>
+      <c r="A273" s="35"/>
+      <c r="B273" s="34"/>
     </row>
     <row r="274">
-      <c r="A274" s="26"/>
-      <c r="B274" s="25"/>
+      <c r="A274" s="35"/>
+      <c r="B274" s="34"/>
     </row>
     <row r="275">
-      <c r="A275" s="26"/>
-      <c r="B275" s="25"/>
+      <c r="A275" s="35"/>
+      <c r="B275" s="34"/>
     </row>
     <row r="276">
-      <c r="A276" s="26"/>
-      <c r="B276" s="25"/>
+      <c r="A276" s="35"/>
+      <c r="B276" s="34"/>
     </row>
     <row r="277">
-      <c r="A277" s="26"/>
-      <c r="B277" s="25"/>
+      <c r="A277" s="35"/>
+      <c r="B277" s="34"/>
     </row>
     <row r="278">
-      <c r="A278" s="26"/>
-      <c r="B278" s="25"/>
+      <c r="A278" s="35"/>
+      <c r="B278" s="34"/>
     </row>
     <row r="279">
-      <c r="A279" s="26"/>
-      <c r="B279" s="25"/>
+      <c r="A279" s="35"/>
+      <c r="B279" s="34"/>
     </row>
     <row r="280">
-      <c r="A280" s="26"/>
-      <c r="B280" s="25"/>
+      <c r="A280" s="35"/>
+      <c r="B280" s="34"/>
     </row>
     <row r="281">
-      <c r="A281" s="26"/>
-      <c r="B281" s="25"/>
+      <c r="A281" s="35"/>
+      <c r="B281" s="34"/>
     </row>
     <row r="282">
-      <c r="A282" s="26"/>
-      <c r="B282" s="25"/>
+      <c r="A282" s="35"/>
+      <c r="B282" s="34"/>
     </row>
     <row r="283">
-      <c r="A283" s="26"/>
-      <c r="B283" s="25"/>
+      <c r="A283" s="35"/>
+      <c r="B283" s="34"/>
     </row>
     <row r="284">
-      <c r="A284" s="26"/>
-      <c r="B284" s="25"/>
+      <c r="A284" s="35"/>
+      <c r="B284" s="34"/>
     </row>
     <row r="285">
-      <c r="A285" s="26"/>
-      <c r="B285" s="25"/>
+      <c r="A285" s="35"/>
+      <c r="B285" s="34"/>
     </row>
     <row r="286">
-      <c r="A286" s="26"/>
-      <c r="B286" s="25"/>
+      <c r="A286" s="35"/>
+      <c r="B286" s="34"/>
     </row>
     <row r="287">
-      <c r="A287" s="26"/>
-      <c r="B287" s="25"/>
+      <c r="A287" s="35"/>
+      <c r="B287" s="34"/>
     </row>
     <row r="288">
-      <c r="A288" s="26"/>
-      <c r="B288" s="25"/>
+      <c r="A288" s="35"/>
+      <c r="B288" s="34"/>
     </row>
     <row r="289">
-      <c r="A289" s="26"/>
-      <c r="B289" s="25"/>
+      <c r="A289" s="35"/>
+      <c r="B289" s="34"/>
     </row>
     <row r="290">
-      <c r="A290" s="26"/>
-      <c r="B290" s="25"/>
+      <c r="A290" s="35"/>
+      <c r="B290" s="34"/>
     </row>
     <row r="291">
-      <c r="A291" s="26"/>
-      <c r="B291" s="25"/>
+      <c r="A291" s="35"/>
+      <c r="B291" s="34"/>
     </row>
     <row r="292">
-      <c r="A292" s="26"/>
-      <c r="B292" s="25"/>
+      <c r="A292" s="35"/>
+      <c r="B292" s="34"/>
     </row>
     <row r="293">
-      <c r="A293" s="26"/>
-      <c r="B293" s="25"/>
+      <c r="A293" s="35"/>
+      <c r="B293" s="34"/>
     </row>
     <row r="294">
-      <c r="A294" s="26"/>
-      <c r="B294" s="25"/>
+      <c r="A294" s="35"/>
+      <c r="B294" s="34"/>
     </row>
     <row r="295">
-      <c r="A295" s="26"/>
-      <c r="B295" s="25"/>
+      <c r="A295" s="35"/>
+      <c r="B295" s="34"/>
     </row>
     <row r="296">
-      <c r="A296" s="26"/>
-      <c r="B296" s="25"/>
+      <c r="A296" s="35"/>
+      <c r="B296" s="34"/>
     </row>
     <row r="297">
-      <c r="A297" s="26"/>
-      <c r="B297" s="25"/>
+      <c r="A297" s="35"/>
+      <c r="B297" s="34"/>
     </row>
     <row r="298">
-      <c r="A298" s="26"/>
-      <c r="B298" s="25"/>
+      <c r="A298" s="35"/>
+      <c r="B298" s="34"/>
     </row>
     <row r="299">
-      <c r="A299" s="26"/>
-      <c r="B299" s="25"/>
+      <c r="A299" s="35"/>
+      <c r="B299" s="34"/>
     </row>
     <row r="300">
-      <c r="A300" s="26"/>
-      <c r="B300" s="25"/>
+      <c r="A300" s="35"/>
+      <c r="B300" s="34"/>
     </row>
     <row r="301">
-      <c r="A301" s="26"/>
-      <c r="B301" s="25"/>
+      <c r="A301" s="35"/>
+      <c r="B301" s="34"/>
     </row>
     <row r="302">
-      <c r="A302" s="26"/>
-      <c r="B302" s="25"/>
+      <c r="A302" s="35"/>
+      <c r="B302" s="34"/>
     </row>
     <row r="303">
-      <c r="A303" s="26"/>
-      <c r="B303" s="25"/>
+      <c r="A303" s="35"/>
+      <c r="B303" s="34"/>
     </row>
     <row r="304">
-      <c r="A304" s="26"/>
-      <c r="B304" s="25"/>
+      <c r="A304" s="35"/>
+      <c r="B304" s="34"/>
     </row>
     <row r="305">
-      <c r="A305" s="26"/>
-      <c r="B305" s="25"/>
+      <c r="A305" s="35"/>
+      <c r="B305" s="34"/>
     </row>
     <row r="306">
-      <c r="A306" s="26"/>
-      <c r="B306" s="25"/>
+      <c r="A306" s="35"/>
+      <c r="B306" s="34"/>
     </row>
     <row r="307">
-      <c r="A307" s="26"/>
-      <c r="B307" s="25"/>
+      <c r="A307" s="35"/>
+      <c r="B307" s="34"/>
     </row>
     <row r="308">
-      <c r="A308" s="26"/>
-      <c r="B308" s="25"/>
+      <c r="A308" s="35"/>
+      <c r="B308" s="34"/>
     </row>
     <row r="309">
-      <c r="A309" s="26"/>
-      <c r="B309" s="25"/>
+      <c r="A309" s="35"/>
+      <c r="B309" s="34"/>
     </row>
     <row r="310">
-      <c r="A310" s="26"/>
-      <c r="B310" s="25"/>
+      <c r="A310" s="35"/>
+      <c r="B310" s="34"/>
     </row>
     <row r="311">
-      <c r="A311" s="26"/>
-      <c r="B311" s="25"/>
+      <c r="A311" s="35"/>
+      <c r="B311" s="34"/>
     </row>
     <row r="312">
-      <c r="A312" s="26"/>
-      <c r="B312" s="25"/>
+      <c r="A312" s="35"/>
+      <c r="B312" s="34"/>
     </row>
     <row r="313">
-      <c r="A313" s="26"/>
-      <c r="B313" s="25"/>
+      <c r="A313" s="35"/>
+      <c r="B313" s="34"/>
     </row>
     <row r="314">
-      <c r="A314" s="26"/>
-      <c r="B314" s="25"/>
+      <c r="A314" s="35"/>
+      <c r="B314" s="34"/>
     </row>
     <row r="315">
-      <c r="A315" s="26"/>
-      <c r="B315" s="25"/>
+      <c r="A315" s="35"/>
+      <c r="B315" s="34"/>
     </row>
     <row r="316">
-      <c r="A316" s="26"/>
-      <c r="B316" s="25"/>
+      <c r="A316" s="35"/>
+      <c r="B316" s="34"/>
     </row>
     <row r="317">
-      <c r="A317" s="26"/>
-      <c r="B317" s="25"/>
+      <c r="A317" s="35"/>
+      <c r="B317" s="34"/>
     </row>
     <row r="318">
-      <c r="A318" s="26"/>
-      <c r="B318" s="25"/>
+      <c r="A318" s="35"/>
+      <c r="B318" s="34"/>
     </row>
     <row r="319">
-      <c r="A319" s="26"/>
-      <c r="B319" s="25"/>
+      <c r="A319" s="35"/>
+      <c r="B319" s="34"/>
     </row>
     <row r="320">
-      <c r="A320" s="26"/>
-      <c r="B320" s="25"/>
+      <c r="A320" s="35"/>
+      <c r="B320" s="34"/>
     </row>
     <row r="321">
-      <c r="A321" s="26"/>
-      <c r="B321" s="25"/>
+      <c r="A321" s="35"/>
+      <c r="B321" s="34"/>
     </row>
     <row r="322">
-      <c r="A322" s="26"/>
-      <c r="B322" s="25"/>
+      <c r="A322" s="35"/>
+      <c r="B322" s="34"/>
     </row>
     <row r="323">
-      <c r="A323" s="26"/>
-      <c r="B323" s="25"/>
+      <c r="A323" s="35"/>
+      <c r="B323" s="34"/>
     </row>
     <row r="324">
-      <c r="A324" s="26"/>
-      <c r="B324" s="25"/>
+      <c r="A324" s="35"/>
+      <c r="B324" s="34"/>
     </row>
     <row r="325">
-      <c r="A325" s="26"/>
-      <c r="B325" s="25"/>
+      <c r="A325" s="35"/>
+      <c r="B325" s="34"/>
     </row>
     <row r="326">
-      <c r="A326" s="26"/>
-      <c r="B326" s="25"/>
+      <c r="A326" s="35"/>
+      <c r="B326" s="34"/>
     </row>
     <row r="327">
-      <c r="A327" s="26"/>
-      <c r="B327" s="25"/>
+      <c r="A327" s="35"/>
+      <c r="B327" s="34"/>
     </row>
     <row r="328">
-      <c r="A328" s="26"/>
-      <c r="B328" s="25"/>
+      <c r="A328" s="35"/>
+      <c r="B328" s="34"/>
     </row>
     <row r="329">
-      <c r="A329" s="26"/>
-      <c r="B329" s="25"/>
+      <c r="A329" s="35"/>
+      <c r="B329" s="34"/>
     </row>
     <row r="330">
-      <c r="A330" s="26"/>
-      <c r="B330" s="25"/>
+      <c r="A330" s="35"/>
+      <c r="B330" s="34"/>
     </row>
     <row r="331">
-      <c r="A331" s="26"/>
-      <c r="B331" s="25"/>
+      <c r="A331" s="35"/>
+      <c r="B331" s="34"/>
     </row>
     <row r="332">
-      <c r="A332" s="26"/>
-      <c r="B332" s="25"/>
+      <c r="A332" s="35"/>
+      <c r="B332" s="34"/>
     </row>
     <row r="333">
-      <c r="A333" s="26"/>
-      <c r="B333" s="25"/>
+      <c r="A333" s="35"/>
+      <c r="B333" s="34"/>
     </row>
     <row r="334">
-      <c r="A334" s="26"/>
-      <c r="B334" s="25"/>
+      <c r="A334" s="35"/>
+      <c r="B334" s="34"/>
     </row>
     <row r="335">
-      <c r="A335" s="26"/>
-      <c r="B335" s="25"/>
+      <c r="A335" s="35"/>
+      <c r="B335" s="34"/>
     </row>
     <row r="336">
-      <c r="A336" s="26"/>
-      <c r="B336" s="25"/>
+      <c r="A336" s="35"/>
+      <c r="B336" s="34"/>
     </row>
     <row r="337">
-      <c r="A337" s="26"/>
-      <c r="B337" s="25"/>
+      <c r="A337" s="35"/>
+      <c r="B337" s="34"/>
     </row>
     <row r="338">
-      <c r="A338" s="26"/>
-      <c r="B338" s="25"/>
+      <c r="A338" s="35"/>
+      <c r="B338" s="34"/>
     </row>
     <row r="339">
-      <c r="A339" s="26"/>
-      <c r="B339" s="25"/>
+      <c r="A339" s="35"/>
+      <c r="B339" s="34"/>
     </row>
     <row r="340">
-      <c r="A340" s="26"/>
-      <c r="B340" s="25"/>
+      <c r="A340" s="35"/>
+      <c r="B340" s="34"/>
     </row>
     <row r="341">
-      <c r="A341" s="26"/>
-      <c r="B341" s="25"/>
+      <c r="A341" s="35"/>
+      <c r="B341" s="34"/>
     </row>
     <row r="342">
-      <c r="A342" s="26"/>
-      <c r="B342" s="25"/>
+      <c r="A342" s="35"/>
+      <c r="B342" s="34"/>
     </row>
     <row r="343">
-      <c r="A343" s="26"/>
-      <c r="B343" s="25"/>
+      <c r="A343" s="35"/>
+      <c r="B343" s="34"/>
     </row>
     <row r="344">
-      <c r="A344" s="26"/>
-      <c r="B344" s="25"/>
+      <c r="A344" s="35"/>
+      <c r="B344" s="34"/>
     </row>
     <row r="345">
-      <c r="A345" s="26"/>
-      <c r="B345" s="25"/>
+      <c r="A345" s="35"/>
+      <c r="B345" s="34"/>
     </row>
     <row r="346">
-      <c r="A346" s="26"/>
-      <c r="B346" s="25"/>
+      <c r="A346" s="35"/>
+      <c r="B346" s="34"/>
     </row>
     <row r="347">
-      <c r="A347" s="26"/>
-      <c r="B347" s="25"/>
+      <c r="A347" s="35"/>
+      <c r="B347" s="34"/>
     </row>
     <row r="348">
-      <c r="A348" s="26"/>
-      <c r="B348" s="25"/>
+      <c r="A348" s="35"/>
+      <c r="B348" s="34"/>
     </row>
     <row r="349">
-      <c r="A349" s="26"/>
-      <c r="B349" s="25"/>
+      <c r="A349" s="35"/>
+      <c r="B349" s="34"/>
     </row>
     <row r="350">
-      <c r="A350" s="26"/>
-      <c r="B350" s="25"/>
+      <c r="A350" s="35"/>
+      <c r="B350" s="34"/>
     </row>
     <row r="351">
-      <c r="A351" s="26"/>
-      <c r="B351" s="25"/>
+      <c r="A351" s="35"/>
+      <c r="B351" s="34"/>
     </row>
     <row r="352">
-      <c r="A352" s="26"/>
-      <c r="B352" s="25"/>
+      <c r="A352" s="35"/>
+      <c r="B352" s="34"/>
     </row>
     <row r="353">
-      <c r="A353" s="26"/>
-      <c r="B353" s="25"/>
+      <c r="A353" s="35"/>
+      <c r="B353" s="34"/>
     </row>
     <row r="354">
-      <c r="A354" s="26"/>
-      <c r="B354" s="25"/>
+      <c r="A354" s="35"/>
+      <c r="B354" s="34"/>
     </row>
     <row r="355">
-      <c r="A355" s="26"/>
-      <c r="B355" s="25"/>
+      <c r="A355" s="35"/>
+      <c r="B355" s="34"/>
     </row>
     <row r="356">
-      <c r="A356" s="26"/>
-      <c r="B356" s="25"/>
+      <c r="A356" s="35"/>
+      <c r="B356" s="34"/>
     </row>
     <row r="357">
-      <c r="A357" s="26"/>
-      <c r="B357" s="25"/>
+      <c r="A357" s="35"/>
+      <c r="B357" s="34"/>
     </row>
     <row r="358">
-      <c r="A358" s="26"/>
-      <c r="B358" s="25"/>
+      <c r="A358" s="35"/>
+      <c r="B358" s="34"/>
     </row>
     <row r="359">
-      <c r="A359" s="26"/>
-      <c r="B359" s="25"/>
+      <c r="A359" s="35"/>
+      <c r="B359" s="34"/>
     </row>
     <row r="360">
-      <c r="A360" s="26"/>
-      <c r="B360" s="25"/>
+      <c r="A360" s="35"/>
+      <c r="B360" s="34"/>
     </row>
     <row r="361">
-      <c r="A361" s="26"/>
-      <c r="B361" s="25"/>
+      <c r="A361" s="35"/>
+      <c r="B361" s="34"/>
     </row>
     <row r="362">
-      <c r="A362" s="26"/>
-      <c r="B362" s="25"/>
+      <c r="A362" s="35"/>
+      <c r="B362" s="34"/>
     </row>
     <row r="363">
-      <c r="A363" s="26"/>
-      <c r="B363" s="25"/>
+      <c r="A363" s="35"/>
+      <c r="B363" s="34"/>
     </row>
     <row r="364">
-      <c r="A364" s="26"/>
-      <c r="B364" s="25"/>
+      <c r="A364" s="35"/>
+      <c r="B364" s="34"/>
     </row>
     <row r="365">
-      <c r="A365" s="26"/>
-      <c r="B365" s="25"/>
+      <c r="A365" s="35"/>
+      <c r="B365" s="34"/>
     </row>
     <row r="366">
-      <c r="A366" s="26"/>
-      <c r="B366" s="25"/>
+      <c r="A366" s="35"/>
+      <c r="B366" s="34"/>
     </row>
     <row r="367">
-      <c r="A367" s="26"/>
-      <c r="B367" s="25"/>
+      <c r="A367" s="35"/>
+      <c r="B367" s="34"/>
     </row>
     <row r="368">
-      <c r="A368" s="26"/>
-      <c r="B368" s="25"/>
+      <c r="A368" s="35"/>
+      <c r="B368" s="34"/>
     </row>
     <row r="369">
-      <c r="A369" s="26"/>
-      <c r="B369" s="25"/>
+      <c r="A369" s="35"/>
+      <c r="B369" s="34"/>
     </row>
     <row r="370">
-      <c r="A370" s="26"/>
-      <c r="B370" s="25"/>
+      <c r="A370" s="35"/>
+      <c r="B370" s="34"/>
     </row>
     <row r="371">
-      <c r="A371" s="26"/>
-      <c r="B371" s="25"/>
+      <c r="A371" s="35"/>
+      <c r="B371" s="34"/>
     </row>
     <row r="372">
-      <c r="A372" s="26"/>
-      <c r="B372" s="25"/>
+      <c r="A372" s="35"/>
+      <c r="B372" s="34"/>
     </row>
     <row r="373">
-      <c r="A373" s="26"/>
-      <c r="B373" s="25"/>
+      <c r="A373" s="35"/>
+      <c r="B373" s="34"/>
     </row>
     <row r="374">
-      <c r="A374" s="26"/>
-      <c r="B374" s="25"/>
+      <c r="A374" s="35"/>
+      <c r="B374" s="34"/>
     </row>
     <row r="375">
-      <c r="A375" s="26"/>
-      <c r="B375" s="25"/>
+      <c r="A375" s="35"/>
+      <c r="B375" s="34"/>
     </row>
     <row r="376">
-      <c r="A376" s="26"/>
-      <c r="B376" s="25"/>
+      <c r="A376" s="35"/>
+      <c r="B376" s="34"/>
     </row>
     <row r="377">
-      <c r="A377" s="26"/>
-      <c r="B377" s="25"/>
+      <c r="A377" s="35"/>
+      <c r="B377" s="34"/>
     </row>
     <row r="378">
-      <c r="A378" s="26"/>
-      <c r="B378" s="25"/>
+      <c r="A378" s="35"/>
+      <c r="B378" s="34"/>
     </row>
     <row r="379">
-      <c r="A379" s="26"/>
-      <c r="B379" s="25"/>
+      <c r="A379" s="35"/>
+      <c r="B379" s="34"/>
     </row>
     <row r="380">
-      <c r="A380" s="26"/>
-      <c r="B380" s="25"/>
+      <c r="A380" s="35"/>
+      <c r="B380" s="34"/>
     </row>
     <row r="381">
-      <c r="A381" s="26"/>
-      <c r="B381" s="25"/>
+      <c r="A381" s="35"/>
+      <c r="B381" s="34"/>
     </row>
     <row r="382">
-      <c r="A382" s="26"/>
-      <c r="B382" s="25"/>
+      <c r="A382" s="35"/>
+      <c r="B382" s="34"/>
     </row>
     <row r="383">
-      <c r="A383" s="26"/>
-      <c r="B383" s="25"/>
+      <c r="A383" s="35"/>
+      <c r="B383" s="34"/>
     </row>
     <row r="384">
-      <c r="A384" s="26"/>
-      <c r="B384" s="25"/>
+      <c r="A384" s="35"/>
+      <c r="B384" s="34"/>
     </row>
     <row r="385">
-      <c r="A385" s="26"/>
-      <c r="B385" s="25"/>
+      <c r="A385" s="35"/>
+      <c r="B385" s="34"/>
     </row>
     <row r="386">
-      <c r="A386" s="26"/>
-      <c r="B386" s="25"/>
+      <c r="A386" s="35"/>
+      <c r="B386" s="34"/>
     </row>
     <row r="387">
-      <c r="A387" s="26"/>
-      <c r="B387" s="25"/>
+      <c r="A387" s="35"/>
+      <c r="B387" s="34"/>
     </row>
     <row r="388">
-      <c r="A388" s="26"/>
-      <c r="B388" s="25"/>
+      <c r="A388" s="35"/>
+      <c r="B388" s="34"/>
     </row>
     <row r="389">
-      <c r="A389" s="26"/>
-      <c r="B389" s="25"/>
+      <c r="A389" s="35"/>
+      <c r="B389" s="34"/>
     </row>
     <row r="390">
-      <c r="A390" s="26"/>
-      <c r="B390" s="25"/>
+      <c r="A390" s="35"/>
+      <c r="B390" s="34"/>
     </row>
     <row r="391">
-      <c r="A391" s="26"/>
-      <c r="B391" s="25"/>
+      <c r="A391" s="35"/>
+      <c r="B391" s="34"/>
     </row>
     <row r="392">
-      <c r="A392" s="26"/>
-      <c r="B392" s="25"/>
+      <c r="A392" s="35"/>
+      <c r="B392" s="34"/>
     </row>
     <row r="393">
-      <c r="A393" s="26"/>
-      <c r="B393" s="25"/>
+      <c r="A393" s="35"/>
+      <c r="B393" s="34"/>
     </row>
     <row r="394">
-      <c r="A394" s="26"/>
-      <c r="B394" s="25"/>
+      <c r="A394" s="35"/>
+      <c r="B394" s="34"/>
     </row>
     <row r="395">
-      <c r="A395" s="26"/>
-      <c r="B395" s="25"/>
+      <c r="A395" s="35"/>
+      <c r="B395" s="34"/>
     </row>
     <row r="396">
-      <c r="A396" s="26"/>
-      <c r="B396" s="25"/>
+      <c r="A396" s="35"/>
+      <c r="B396" s="34"/>
     </row>
     <row r="397">
-      <c r="A397" s="26"/>
-      <c r="B397" s="25"/>
+      <c r="A397" s="35"/>
+      <c r="B397" s="34"/>
     </row>
     <row r="398">
-      <c r="A398" s="26"/>
-      <c r="B398" s="25"/>
+      <c r="A398" s="35"/>
+      <c r="B398" s="34"/>
     </row>
     <row r="399">
-      <c r="A399" s="26"/>
-      <c r="B399" s="25"/>
+      <c r="A399" s="35"/>
+      <c r="B399" s="34"/>
     </row>
     <row r="400">
-      <c r="A400" s="26"/>
-      <c r="B400" s="25"/>
+      <c r="A400" s="35"/>
+      <c r="B400" s="34"/>
     </row>
     <row r="401">
-      <c r="A401" s="26"/>
-      <c r="B401" s="25"/>
+      <c r="A401" s="35"/>
+      <c r="B401" s="34"/>
     </row>
     <row r="402">
-      <c r="A402" s="26"/>
-      <c r="B402" s="25"/>
+      <c r="A402" s="35"/>
+      <c r="B402" s="34"/>
     </row>
     <row r="403">
-      <c r="A403" s="26"/>
-      <c r="B403" s="25"/>
+      <c r="A403" s="35"/>
+      <c r="B403" s="34"/>
     </row>
     <row r="404">
-      <c r="A404" s="26"/>
-      <c r="B404" s="25"/>
+      <c r="A404" s="35"/>
+      <c r="B404" s="34"/>
     </row>
     <row r="405">
-      <c r="A405" s="26"/>
-      <c r="B405" s="25"/>
+      <c r="A405" s="35"/>
+      <c r="B405" s="34"/>
     </row>
     <row r="406">
-      <c r="A406" s="26"/>
-      <c r="B406" s="25"/>
+      <c r="A406" s="35"/>
+      <c r="B406" s="34"/>
     </row>
     <row r="407">
-      <c r="A407" s="26"/>
-      <c r="B407" s="25"/>
+      <c r="A407" s="35"/>
+      <c r="B407" s="34"/>
     </row>
     <row r="408">
-      <c r="A408" s="26"/>
-      <c r="B408" s="25"/>
+      <c r="A408" s="35"/>
+      <c r="B408" s="34"/>
     </row>
     <row r="409">
-      <c r="A409" s="26"/>
-      <c r="B409" s="25"/>
+      <c r="A409" s="35"/>
+      <c r="B409" s="34"/>
     </row>
     <row r="410">
-      <c r="A410" s="26"/>
-      <c r="B410" s="25"/>
+      <c r="A410" s="35"/>
+      <c r="B410" s="34"/>
     </row>
     <row r="411">
-      <c r="A411" s="26"/>
-      <c r="B411" s="25"/>
+      <c r="A411" s="35"/>
+      <c r="B411" s="34"/>
     </row>
     <row r="412">
-      <c r="A412" s="26"/>
-      <c r="B412" s="25"/>
+      <c r="A412" s="35"/>
+      <c r="B412" s="34"/>
     </row>
     <row r="413">
-      <c r="A413" s="26"/>
-      <c r="B413" s="25"/>
+      <c r="A413" s="35"/>
+      <c r="B413" s="34"/>
     </row>
     <row r="414">
-      <c r="A414" s="26"/>
-      <c r="B414" s="25"/>
+      <c r="A414" s="35"/>
+      <c r="B414" s="34"/>
     </row>
     <row r="415">
-      <c r="A415" s="26"/>
-      <c r="B415" s="25"/>
+      <c r="A415" s="35"/>
+      <c r="B415" s="34"/>
     </row>
     <row r="416">
-      <c r="A416" s="26"/>
-      <c r="B416" s="25"/>
+      <c r="A416" s="35"/>
+      <c r="B416" s="34"/>
     </row>
     <row r="417">
-      <c r="A417" s="26"/>
-      <c r="B417" s="25"/>
+      <c r="A417" s="35"/>
+      <c r="B417" s="34"/>
     </row>
     <row r="418">
-      <c r="A418" s="26"/>
-      <c r="B418" s="25"/>
+      <c r="A418" s="35"/>
+      <c r="B418" s="34"/>
     </row>
     <row r="419">
-      <c r="A419" s="26"/>
-      <c r="B419" s="25"/>
+      <c r="A419" s="35"/>
+      <c r="B419" s="34"/>
     </row>
     <row r="420">
-      <c r="A420" s="26"/>
-      <c r="B420" s="25"/>
+      <c r="A420" s="35"/>
+      <c r="B420" s="34"/>
     </row>
     <row r="421">
-      <c r="A421" s="26"/>
-      <c r="B421" s="25"/>
+      <c r="A421" s="35"/>
+      <c r="B421" s="34"/>
     </row>
     <row r="422">
-      <c r="A422" s="26"/>
-      <c r="B422" s="25"/>
+      <c r="A422" s="35"/>
+      <c r="B422" s="34"/>
     </row>
     <row r="423">
-      <c r="A423" s="26"/>
-      <c r="B423" s="25"/>
+      <c r="A423" s="35"/>
+      <c r="B423" s="34"/>
     </row>
     <row r="424">
-      <c r="A424" s="26"/>
-      <c r="B424" s="25"/>
+      <c r="A424" s="35"/>
+      <c r="B424" s="34"/>
     </row>
     <row r="425">
-      <c r="A425" s="26"/>
-      <c r="B425" s="25"/>
+      <c r="A425" s="35"/>
+      <c r="B425" s="34"/>
     </row>
     <row r="426">
-      <c r="A426" s="26"/>
-      <c r="B426" s="25"/>
+      <c r="A426" s="35"/>
+      <c r="B426" s="34"/>
     </row>
     <row r="427">
-      <c r="A427" s="26"/>
-      <c r="B427" s="25"/>
+      <c r="A427" s="35"/>
+      <c r="B427" s="34"/>
     </row>
     <row r="428">
-      <c r="A428" s="26"/>
-      <c r="B428" s="25"/>
+      <c r="A428" s="35"/>
+      <c r="B428" s="34"/>
     </row>
     <row r="429">
-      <c r="A429" s="26"/>
-      <c r="B429" s="25"/>
+      <c r="A429" s="35"/>
+      <c r="B429" s="34"/>
     </row>
     <row r="430">
-      <c r="A430" s="26"/>
-      <c r="B430" s="25"/>
+      <c r="A430" s="35"/>
+      <c r="B430" s="34"/>
     </row>
     <row r="431">
-      <c r="A431" s="26"/>
-      <c r="B431" s="25"/>
+      <c r="A431" s="35"/>
+      <c r="B431" s="34"/>
     </row>
     <row r="432">
-      <c r="A432" s="26"/>
-      <c r="B432" s="25"/>
+      <c r="A432" s="35"/>
+      <c r="B432" s="34"/>
     </row>
     <row r="433">
-      <c r="A433" s="26"/>
-      <c r="B433" s="25"/>
+      <c r="A433" s="35"/>
+      <c r="B433" s="34"/>
     </row>
     <row r="434">
-      <c r="A434" s="26"/>
-      <c r="B434" s="25"/>
+      <c r="A434" s="35"/>
+      <c r="B434" s="34"/>
     </row>
     <row r="435">
-      <c r="A435" s="26"/>
-      <c r="B435" s="25"/>
+      <c r="A435" s="35"/>
+      <c r="B435" s="34"/>
     </row>
     <row r="436">
-      <c r="A436" s="26"/>
-      <c r="B436" s="25"/>
+      <c r="A436" s="35"/>
+      <c r="B436" s="34"/>
     </row>
     <row r="437">
-      <c r="A437" s="26"/>
-      <c r="B437" s="25"/>
+      <c r="A437" s="35"/>
+      <c r="B437" s="34"/>
     </row>
     <row r="438">
-      <c r="A438" s="26"/>
-      <c r="B438" s="25"/>
+      <c r="A438" s="35"/>
+      <c r="B438" s="34"/>
     </row>
     <row r="439">
-      <c r="A439" s="26"/>
-      <c r="B439" s="25"/>
+      <c r="A439" s="35"/>
+      <c r="B439" s="34"/>
     </row>
     <row r="440">
-      <c r="A440" s="26"/>
-      <c r="B440" s="25"/>
+      <c r="A440" s="35"/>
+      <c r="B440" s="34"/>
     </row>
     <row r="441">
-      <c r="A441" s="26"/>
-      <c r="B441" s="25"/>
+      <c r="A441" s="35"/>
+      <c r="B441" s="34"/>
     </row>
     <row r="442">
-      <c r="A442" s="26"/>
-      <c r="B442" s="25"/>
+      <c r="A442" s="35"/>
+      <c r="B442" s="34"/>
     </row>
     <row r="443">
-      <c r="A443" s="26"/>
-      <c r="B443" s="25"/>
+      <c r="A443" s="35"/>
+      <c r="B443" s="34"/>
     </row>
     <row r="444">
-      <c r="A444" s="26"/>
-      <c r="B444" s="25"/>
+      <c r="A444" s="35"/>
+      <c r="B444" s="34"/>
     </row>
     <row r="445">
-      <c r="A445" s="26"/>
-      <c r="B445" s="25"/>
+      <c r="A445" s="35"/>
+      <c r="B445" s="34"/>
     </row>
     <row r="446">
-      <c r="A446" s="26"/>
-      <c r="B446" s="25"/>
+      <c r="A446" s="35"/>
+      <c r="B446" s="34"/>
     </row>
     <row r="447">
-      <c r="A447" s="26"/>
-      <c r="B447" s="25"/>
+      <c r="A447" s="35"/>
+      <c r="B447" s="34"/>
     </row>
     <row r="448">
-      <c r="A448" s="26"/>
-      <c r="B448" s="25"/>
+      <c r="A448" s="35"/>
+      <c r="B448" s="34"/>
     </row>
     <row r="449">
-      <c r="A449" s="26"/>
-      <c r="B449" s="25"/>
+      <c r="A449" s="35"/>
+      <c r="B449" s="34"/>
     </row>
     <row r="450">
-      <c r="A450" s="26"/>
-      <c r="B450" s="25"/>
+      <c r="A450" s="35"/>
+      <c r="B450" s="34"/>
     </row>
     <row r="451">
-      <c r="A451" s="26"/>
-      <c r="B451" s="25"/>
+      <c r="A451" s="35"/>
+      <c r="B451" s="34"/>
     </row>
     <row r="452">
-      <c r="A452" s="26"/>
-      <c r="B452" s="25"/>
+      <c r="A452" s="35"/>
+      <c r="B452" s="34"/>
     </row>
     <row r="453">
-      <c r="A453" s="26"/>
-      <c r="B453" s="25"/>
+      <c r="A453" s="35"/>
+      <c r="B453" s="34"/>
     </row>
     <row r="454">
-      <c r="A454" s="26"/>
-      <c r="B454" s="25"/>
+      <c r="A454" s="35"/>
+      <c r="B454" s="34"/>
     </row>
     <row r="455">
-      <c r="A455" s="26"/>
-      <c r="B455" s="25"/>
+      <c r="A455" s="35"/>
+      <c r="B455" s="34"/>
     </row>
     <row r="456">
-      <c r="A456" s="26"/>
-      <c r="B456" s="25"/>
+      <c r="A456" s="35"/>
+      <c r="B456" s="34"/>
     </row>
     <row r="457">
-      <c r="A457" s="26"/>
-      <c r="B457" s="25"/>
+      <c r="A457" s="35"/>
+      <c r="B457" s="34"/>
     </row>
     <row r="458">
-      <c r="A458" s="26"/>
-      <c r="B458" s="25"/>
+      <c r="A458" s="35"/>
+      <c r="B458" s="34"/>
     </row>
     <row r="459">
-      <c r="A459" s="26"/>
-      <c r="B459" s="25"/>
+      <c r="A459" s="35"/>
+      <c r="B459" s="34"/>
     </row>
     <row r="460">
-      <c r="A460" s="26"/>
-      <c r="B460" s="25"/>
+      <c r="A460" s="35"/>
+      <c r="B460" s="34"/>
     </row>
     <row r="461">
-      <c r="A461" s="26"/>
-      <c r="B461" s="25"/>
+      <c r="A461" s="35"/>
+      <c r="B461" s="34"/>
     </row>
     <row r="462">
-      <c r="A462" s="26"/>
-      <c r="B462" s="25"/>
+      <c r="A462" s="35"/>
+      <c r="B462" s="34"/>
     </row>
     <row r="463">
-      <c r="A463" s="26"/>
-      <c r="B463" s="25"/>
+      <c r="A463" s="35"/>
+      <c r="B463" s="34"/>
     </row>
     <row r="464">
-      <c r="A464" s="26"/>
-      <c r="B464" s="25"/>
+      <c r="A464" s="35"/>
+      <c r="B464" s="34"/>
     </row>
     <row r="465">
-      <c r="A465" s="26"/>
-      <c r="B465" s="25"/>
+      <c r="A465" s="35"/>
+      <c r="B465" s="34"/>
     </row>
     <row r="466">
-      <c r="A466" s="26"/>
-      <c r="B466" s="25"/>
+      <c r="A466" s="35"/>
+      <c r="B466" s="34"/>
     </row>
     <row r="467">
-      <c r="A467" s="26"/>
-      <c r="B467" s="25"/>
+      <c r="A467" s="35"/>
+      <c r="B467" s="34"/>
     </row>
     <row r="468">
-      <c r="A468" s="26"/>
-      <c r="B468" s="25"/>
+      <c r="A468" s="35"/>
+      <c r="B468" s="34"/>
     </row>
     <row r="469">
-      <c r="A469" s="26"/>
-      <c r="B469" s="25"/>
+      <c r="A469" s="35"/>
+      <c r="B469" s="34"/>
     </row>
     <row r="470">
-      <c r="A470" s="26"/>
-      <c r="B470" s="25"/>
+      <c r="A470" s="35"/>
+      <c r="B470" s="34"/>
     </row>
     <row r="471">
-      <c r="A471" s="26"/>
-      <c r="B471" s="25"/>
+      <c r="A471" s="35"/>
+      <c r="B471" s="34"/>
     </row>
     <row r="472">
-      <c r="A472" s="26"/>
-      <c r="B472" s="25"/>
+      <c r="A472" s="35"/>
+      <c r="B472" s="34"/>
     </row>
     <row r="473">
-      <c r="A473" s="26"/>
-      <c r="B473" s="25"/>
+      <c r="A473" s="35"/>
+      <c r="B473" s="34"/>
     </row>
     <row r="474">
-      <c r="A474" s="26"/>
-      <c r="B474" s="25"/>
+      <c r="A474" s="35"/>
+      <c r="B474" s="34"/>
     </row>
     <row r="475">
-      <c r="A475" s="26"/>
-      <c r="B475" s="25"/>
+      <c r="A475" s="35"/>
+      <c r="B475" s="34"/>
     </row>
     <row r="476">
-      <c r="A476" s="26"/>
-      <c r="B476" s="25"/>
+      <c r="A476" s="35"/>
+      <c r="B476" s="34"/>
     </row>
     <row r="477">
-      <c r="A477" s="26"/>
-      <c r="B477" s="25"/>
+      <c r="A477" s="35"/>
+      <c r="B477" s="34"/>
     </row>
     <row r="478">
-      <c r="A478" s="26"/>
-      <c r="B478" s="25"/>
+      <c r="A478" s="35"/>
+      <c r="B478" s="34"/>
     </row>
     <row r="479">
-      <c r="A479" s="26"/>
-      <c r="B479" s="25"/>
+      <c r="A479" s="35"/>
+      <c r="B479" s="34"/>
     </row>
     <row r="480">
-      <c r="A480" s="26"/>
-      <c r="B480" s="25"/>
+      <c r="A480" s="35"/>
+      <c r="B480" s="34"/>
     </row>
     <row r="481">
-      <c r="A481" s="26"/>
-      <c r="B481" s="25"/>
+      <c r="A481" s="35"/>
+      <c r="B481" s="34"/>
     </row>
     <row r="482">
-      <c r="A482" s="26"/>
-      <c r="B482" s="25"/>
+      <c r="A482" s="35"/>
+      <c r="B482" s="34"/>
     </row>
     <row r="483">
-      <c r="A483" s="26"/>
-      <c r="B483" s="25"/>
+      <c r="A483" s="35"/>
+      <c r="B483" s="34"/>
     </row>
     <row r="484">
-      <c r="A484" s="26"/>
-      <c r="B484" s="25"/>
+      <c r="A484" s="35"/>
+      <c r="B484" s="34"/>
     </row>
     <row r="485">
-      <c r="A485" s="26"/>
-      <c r="B485" s="25"/>
+      <c r="A485" s="35"/>
+      <c r="B485" s="34"/>
     </row>
     <row r="486">
-      <c r="A486" s="26"/>
-      <c r="B486" s="25"/>
+      <c r="A486" s="35"/>
+      <c r="B486" s="34"/>
     </row>
     <row r="487">
-      <c r="A487" s="26"/>
-      <c r="B487" s="25"/>
+      <c r="A487" s="35"/>
+      <c r="B487" s="34"/>
     </row>
     <row r="488">
-      <c r="A488" s="26"/>
-      <c r="B488" s="25"/>
+      <c r="A488" s="35"/>
+      <c r="B488" s="34"/>
     </row>
     <row r="489">
-      <c r="A489" s="26"/>
-      <c r="B489" s="25"/>
+      <c r="A489" s="35"/>
+      <c r="B489" s="34"/>
     </row>
     <row r="490">
-      <c r="A490" s="26"/>
-      <c r="B490" s="25"/>
+      <c r="A490" s="35"/>
+      <c r="B490" s="34"/>
     </row>
     <row r="491">
-      <c r="A491" s="26"/>
-      <c r="B491" s="25"/>
+      <c r="A491" s="35"/>
+      <c r="B491" s="34"/>
     </row>
     <row r="492">
-      <c r="A492" s="26"/>
-      <c r="B492" s="25"/>
+      <c r="A492" s="35"/>
+      <c r="B492" s="34"/>
     </row>
     <row r="493">
-      <c r="A493" s="26"/>
-      <c r="B493" s="25"/>
+      <c r="A493" s="35"/>
+      <c r="B493" s="34"/>
     </row>
     <row r="494">
-      <c r="A494" s="26"/>
-      <c r="B494" s="25"/>
+      <c r="A494" s="35"/>
+      <c r="B494" s="34"/>
     </row>
     <row r="495">
-      <c r="A495" s="26"/>
-      <c r="B495" s="25"/>
+      <c r="A495" s="35"/>
+      <c r="B495" s="34"/>
     </row>
     <row r="496">
-      <c r="A496" s="26"/>
-      <c r="B496" s="25"/>
+      <c r="A496" s="35"/>
+      <c r="B496" s="34"/>
     </row>
     <row r="497">
-      <c r="A497" s="26"/>
-      <c r="B497" s="25"/>
+      <c r="A497" s="35"/>
+      <c r="B497" s="34"/>
     </row>
     <row r="498">
-      <c r="A498" s="26"/>
-      <c r="B498" s="25"/>
+      <c r="A498" s="35"/>
+      <c r="B498" s="34"/>
     </row>
     <row r="499">
-      <c r="A499" s="26"/>
-      <c r="B499" s="25"/>
+      <c r="A499" s="35"/>
+      <c r="B499" s="34"/>
     </row>
     <row r="500">
-      <c r="A500" s="26"/>
-      <c r="B500" s="25"/>
+      <c r="A500" s="35"/>
+      <c r="B500" s="34"/>
     </row>
     <row r="501">
-      <c r="A501" s="26"/>
-      <c r="B501" s="25"/>
+      <c r="A501" s="35"/>
+      <c r="B501" s="34"/>
     </row>
     <row r="502">
-      <c r="A502" s="26"/>
-      <c r="B502" s="25"/>
+      <c r="A502" s="35"/>
+      <c r="B502" s="34"/>
     </row>
     <row r="503">
-      <c r="A503" s="26"/>
-      <c r="B503" s="25"/>
+      <c r="A503" s="35"/>
+      <c r="B503" s="34"/>
     </row>
     <row r="504">
-      <c r="A504" s="26"/>
-      <c r="B504" s="25"/>
+      <c r="A504" s="35"/>
+      <c r="B504" s="34"/>
     </row>
     <row r="505">
-      <c r="A505" s="26"/>
-      <c r="B505" s="25"/>
+      <c r="A505" s="35"/>
+      <c r="B505" s="34"/>
     </row>
     <row r="506">
-      <c r="A506" s="26"/>
-      <c r="B506" s="25"/>
+      <c r="A506" s="35"/>
+      <c r="B506" s="34"/>
     </row>
     <row r="507">
-      <c r="A507" s="26"/>
-      <c r="B507" s="25"/>
+      <c r="A507" s="35"/>
+      <c r="B507" s="34"/>
     </row>
     <row r="508">
-      <c r="A508" s="26"/>
-      <c r="B508" s="25"/>
+      <c r="A508" s="35"/>
+      <c r="B508" s="34"/>
     </row>
     <row r="509">
-      <c r="A509" s="26"/>
-      <c r="B509" s="25"/>
+      <c r="A509" s="35"/>
+      <c r="B509" s="34"/>
     </row>
     <row r="510">
-      <c r="A510" s="26"/>
-      <c r="B510" s="25"/>
+      <c r="A510" s="35"/>
+      <c r="B510" s="34"/>
     </row>
     <row r="511">
-      <c r="A511" s="26"/>
-      <c r="B511" s="25"/>
+      <c r="A511" s="35"/>
+      <c r="B511" s="34"/>
     </row>
     <row r="512">
-      <c r="A512" s="26"/>
-      <c r="B512" s="25"/>
+      <c r="A512" s="35"/>
+      <c r="B512" s="34"/>
     </row>
     <row r="513">
-      <c r="A513" s="26"/>
-      <c r="B513" s="25"/>
+      <c r="A513" s="35"/>
+      <c r="B513" s="34"/>
     </row>
     <row r="514">
-      <c r="A514" s="26"/>
-      <c r="B514" s="25"/>
+      <c r="A514" s="35"/>
+      <c r="B514" s="34"/>
     </row>
     <row r="515">
-      <c r="A515" s="26"/>
-      <c r="B515" s="25"/>
+      <c r="A515" s="35"/>
+      <c r="B515" s="34"/>
     </row>
     <row r="516">
-      <c r="A516" s="26"/>
-      <c r="B516" s="25"/>
+      <c r="A516" s="35"/>
+      <c r="B516" s="34"/>
     </row>
     <row r="517">
-      <c r="A517" s="26"/>
-      <c r="B517" s="25"/>
+      <c r="A517" s="35"/>
+      <c r="B517" s="34"/>
     </row>
     <row r="518">
-      <c r="A518" s="26"/>
-      <c r="B518" s="25"/>
+      <c r="A518" s="35"/>
+      <c r="B518" s="34"/>
     </row>
     <row r="519">
-      <c r="A519" s="26"/>
-      <c r="B519" s="25"/>
+      <c r="A519" s="35"/>
+      <c r="B519" s="34"/>
     </row>
     <row r="520">
-      <c r="A520" s="26"/>
-      <c r="B520" s="25"/>
+      <c r="A520" s="35"/>
+      <c r="B520" s="34"/>
     </row>
     <row r="521">
-      <c r="A521" s="26"/>
-      <c r="B521" s="25"/>
+      <c r="A521" s="35"/>
+      <c r="B521" s="34"/>
     </row>
     <row r="522">
-      <c r="A522" s="26"/>
-      <c r="B522" s="25"/>
+      <c r="A522" s="35"/>
+      <c r="B522" s="34"/>
     </row>
     <row r="523">
-      <c r="A523" s="26"/>
-      <c r="B523" s="25"/>
+      <c r="A523" s="35"/>
+      <c r="B523" s="34"/>
     </row>
     <row r="524">
-      <c r="A524" s="26"/>
-      <c r="B524" s="25"/>
+      <c r="A524" s="35"/>
+      <c r="B524" s="34"/>
     </row>
     <row r="525">
-      <c r="A525" s="26"/>
-      <c r="B525" s="25"/>
+      <c r="A525" s="35"/>
+      <c r="B525" s="34"/>
     </row>
     <row r="526">
-      <c r="A526" s="26"/>
-      <c r="B526" s="25"/>
+      <c r="A526" s="35"/>
+      <c r="B526" s="34"/>
     </row>
     <row r="527">
-      <c r="A527" s="26"/>
-      <c r="B527" s="25"/>
+      <c r="A527" s="35"/>
+      <c r="B527" s="34"/>
     </row>
     <row r="528">
-      <c r="A528" s="26"/>
-      <c r="B528" s="25"/>
+      <c r="A528" s="35"/>
+      <c r="B528" s="34"/>
     </row>
     <row r="529">
-      <c r="A529" s="26"/>
-      <c r="B529" s="25"/>
+      <c r="A529" s="35"/>
+      <c r="B529" s="34"/>
     </row>
     <row r="530">
-      <c r="A530" s="26"/>
-      <c r="B530" s="25"/>
+      <c r="A530" s="35"/>
+      <c r="B530" s="34"/>
     </row>
     <row r="531">
-      <c r="A531" s="26"/>
-      <c r="B531" s="25"/>
+      <c r="A531" s="35"/>
+      <c r="B531" s="34"/>
     </row>
     <row r="532">
-      <c r="A532" s="26"/>
-      <c r="B532" s="25"/>
+      <c r="A532" s="35"/>
+      <c r="B532" s="34"/>
     </row>
     <row r="533">
-      <c r="A533" s="26"/>
-      <c r="B533" s="25"/>
+      <c r="A533" s="35"/>
+      <c r="B533" s="34"/>
     </row>
     <row r="534">
-      <c r="A534" s="26"/>
-      <c r="B534" s="25"/>
+      <c r="A534" s="35"/>
+      <c r="B534" s="34"/>
     </row>
     <row r="535">
-      <c r="A535" s="26"/>
-      <c r="B535" s="25"/>
+      <c r="A535" s="35"/>
+      <c r="B535" s="34"/>
     </row>
     <row r="536">
-      <c r="A536" s="26"/>
-      <c r="B536" s="25"/>
+      <c r="A536" s="35"/>
+      <c r="B536" s="34"/>
     </row>
     <row r="537">
-      <c r="A537" s="26"/>
-      <c r="B537" s="25"/>
+      <c r="A537" s="35"/>
+      <c r="B537" s="34"/>
     </row>
     <row r="538">
-      <c r="A538" s="26"/>
-      <c r="B538" s="25"/>
+      <c r="A538" s="35"/>
+      <c r="B538" s="34"/>
     </row>
     <row r="539">
-      <c r="A539" s="26"/>
-      <c r="B539" s="25"/>
+      <c r="A539" s="35"/>
+      <c r="B539" s="34"/>
     </row>
     <row r="540">
-      <c r="A540" s="26"/>
-      <c r="B540" s="25"/>
+      <c r="A540" s="35"/>
+      <c r="B540" s="34"/>
     </row>
     <row r="541">
-      <c r="A541" s="26"/>
-      <c r="B541" s="25"/>
+      <c r="A541" s="35"/>
+      <c r="B541" s="34"/>
     </row>
     <row r="542">
-      <c r="A542" s="26"/>
-      <c r="B542" s="25"/>
+      <c r="A542" s="35"/>
+      <c r="B542" s="34"/>
     </row>
     <row r="543">
-      <c r="A543" s="26"/>
-      <c r="B543" s="25"/>
+      <c r="A543" s="35"/>
+      <c r="B543" s="34"/>
     </row>
     <row r="544">
-      <c r="A544" s="26"/>
-      <c r="B544" s="25"/>
+      <c r="A544" s="35"/>
+      <c r="B544" s="34"/>
     </row>
     <row r="545">
-      <c r="A545" s="26"/>
-      <c r="B545" s="25"/>
+      <c r="A545" s="35"/>
+      <c r="B545" s="34"/>
     </row>
     <row r="546">
-      <c r="A546" s="26"/>
-      <c r="B546" s="25"/>
+      <c r="A546" s="35"/>
+      <c r="B546" s="34"/>
     </row>
     <row r="547">
-      <c r="A547" s="26"/>
-      <c r="B547" s="25"/>
+      <c r="A547" s="35"/>
+      <c r="B547" s="34"/>
     </row>
     <row r="548">
-      <c r="A548" s="26"/>
-      <c r="B548" s="25"/>
+      <c r="A548" s="35"/>
+      <c r="B548" s="34"/>
     </row>
     <row r="549">
-      <c r="A549" s="26"/>
-      <c r="B549" s="25"/>
+      <c r="A549" s="35"/>
+      <c r="B549" s="34"/>
     </row>
     <row r="550">
-      <c r="A550" s="26"/>
-      <c r="B550" s="25"/>
+      <c r="A550" s="35"/>
+      <c r="B550" s="34"/>
     </row>
     <row r="551">
-      <c r="A551" s="26"/>
-      <c r="B551" s="25"/>
+      <c r="A551" s="35"/>
+      <c r="B551" s="34"/>
     </row>
     <row r="552">
-      <c r="A552" s="26"/>
-      <c r="B552" s="25"/>
+      <c r="A552" s="35"/>
+      <c r="B552" s="34"/>
     </row>
     <row r="553">
-      <c r="A553" s="26"/>
-      <c r="B553" s="25"/>
+      <c r="A553" s="35"/>
+      <c r="B553" s="34"/>
     </row>
     <row r="554">
-      <c r="A554" s="26"/>
-      <c r="B554" s="25"/>
+      <c r="A554" s="35"/>
+      <c r="B554" s="34"/>
     </row>
     <row r="555">
-      <c r="A555" s="26"/>
-      <c r="B555" s="25"/>
+      <c r="A555" s="35"/>
+      <c r="B555" s="34"/>
     </row>
     <row r="556">
-      <c r="A556" s="26"/>
-      <c r="B556" s="25"/>
+      <c r="A556" s="35"/>
+      <c r="B556" s="34"/>
     </row>
     <row r="557">
-      <c r="A557" s="26"/>
-      <c r="B557" s="25"/>
+      <c r="A557" s="35"/>
+      <c r="B557" s="34"/>
     </row>
     <row r="558">
-      <c r="A558" s="26"/>
-      <c r="B558" s="25"/>
+      <c r="A558" s="35"/>
+      <c r="B558" s="34"/>
     </row>
     <row r="559">
-      <c r="A559" s="26"/>
-      <c r="B559" s="25"/>
+      <c r="A559" s="35"/>
+      <c r="B559" s="34"/>
     </row>
     <row r="560">
-      <c r="A560" s="26"/>
-      <c r="B560" s="25"/>
+      <c r="A560" s="35"/>
+      <c r="B560" s="34"/>
     </row>
     <row r="561">
-      <c r="A561" s="26"/>
-      <c r="B561" s="25"/>
+      <c r="A561" s="35"/>
+      <c r="B561" s="34"/>
     </row>
     <row r="562">
-      <c r="A562" s="26"/>
-      <c r="B562" s="25"/>
+      <c r="A562" s="35"/>
+      <c r="B562" s="34"/>
     </row>
     <row r="563">
-      <c r="A563" s="26"/>
-      <c r="B563" s="25"/>
+      <c r="A563" s="35"/>
+      <c r="B563" s="34"/>
     </row>
     <row r="564">
-      <c r="A564" s="26"/>
-      <c r="B564" s="25"/>
+      <c r="A564" s="35"/>
+      <c r="B564" s="34"/>
     </row>
     <row r="565">
-      <c r="A565" s="26"/>
-      <c r="B565" s="25"/>
+      <c r="A565" s="35"/>
+      <c r="B565" s="34"/>
     </row>
     <row r="566">
-      <c r="A566" s="26"/>
-      <c r="B566" s="25"/>
+      <c r="A566" s="35"/>
+      <c r="B566" s="34"/>
     </row>
     <row r="567">
-      <c r="A567" s="26"/>
-      <c r="B567" s="25"/>
+      <c r="A567" s="35"/>
+      <c r="B567" s="34"/>
     </row>
     <row r="568">
-      <c r="A568" s="26"/>
-      <c r="B568" s="25"/>
+      <c r="A568" s="35"/>
+      <c r="B568" s="34"/>
     </row>
     <row r="569">
-      <c r="A569" s="26"/>
-      <c r="B569" s="25"/>
+      <c r="A569" s="35"/>
+      <c r="B569" s="34"/>
     </row>
     <row r="570">
-      <c r="A570" s="26"/>
-      <c r="B570" s="25"/>
+      <c r="A570" s="35"/>
+      <c r="B570" s="34"/>
     </row>
     <row r="571">
-      <c r="A571" s="26"/>
-      <c r="B571" s="25"/>
+      <c r="A571" s="35"/>
+      <c r="B571" s="34"/>
     </row>
     <row r="572">
-      <c r="A572" s="26"/>
-      <c r="B572" s="25"/>
+      <c r="A572" s="35"/>
+      <c r="B572" s="34"/>
     </row>
     <row r="573">
-      <c r="A573" s="26"/>
-      <c r="B573" s="25"/>
+      <c r="A573" s="35"/>
+      <c r="B573" s="34"/>
     </row>
     <row r="574">
-      <c r="A574" s="26"/>
-      <c r="B574" s="25"/>
+      <c r="A574" s="35"/>
+      <c r="B574" s="34"/>
     </row>
     <row r="575">
-      <c r="A575" s="26"/>
-      <c r="B575" s="25"/>
+      <c r="A575" s="35"/>
+      <c r="B575" s="34"/>
     </row>
     <row r="576">
-      <c r="A576" s="26"/>
-      <c r="B576" s="25"/>
+      <c r="A576" s="35"/>
+      <c r="B576" s="34"/>
     </row>
     <row r="577">
-      <c r="A577" s="26"/>
-      <c r="B577" s="25"/>
+      <c r="A577" s="35"/>
+      <c r="B577" s="34"/>
     </row>
     <row r="578">
-      <c r="A578" s="26"/>
-      <c r="B578" s="25"/>
+      <c r="A578" s="35"/>
+      <c r="B578" s="34"/>
     </row>
     <row r="579">
-      <c r="A579" s="26"/>
-      <c r="B579" s="25"/>
+      <c r="A579" s="35"/>
+      <c r="B579" s="34"/>
     </row>
     <row r="580">
-      <c r="A580" s="26"/>
-      <c r="B580" s="25"/>
+      <c r="A580" s="35"/>
+      <c r="B580" s="34"/>
     </row>
     <row r="581">
-      <c r="A581" s="26"/>
-      <c r="B581" s="25"/>
+      <c r="A581" s="35"/>
+      <c r="B581" s="34"/>
     </row>
     <row r="582">
-      <c r="A582" s="26"/>
-      <c r="B582" s="25"/>
+      <c r="A582" s="35"/>
+      <c r="B582" s="34"/>
     </row>
     <row r="583">
-      <c r="A583" s="26"/>
-      <c r="B583" s="25"/>
+      <c r="A583" s="35"/>
+      <c r="B583" s="34"/>
     </row>
     <row r="584">
-      <c r="A584" s="26"/>
-      <c r="B584" s="25"/>
+      <c r="A584" s="35"/>
+      <c r="B584" s="34"/>
     </row>
     <row r="585">
-      <c r="A585" s="26"/>
-      <c r="B585" s="25"/>
+      <c r="A585" s="35"/>
+      <c r="B585" s="34"/>
     </row>
     <row r="586">
-      <c r="A586" s="26"/>
-      <c r="B586" s="25"/>
+      <c r="A586" s="35"/>
+      <c r="B586" s="34"/>
     </row>
     <row r="587">
-      <c r="A587" s="26"/>
-      <c r="B587" s="25"/>
+      <c r="A587" s="35"/>
+      <c r="B587" s="34"/>
     </row>
     <row r="588">
-      <c r="A588" s="26"/>
-      <c r="B588" s="25"/>
+      <c r="A588" s="35"/>
+      <c r="B588" s="34"/>
     </row>
     <row r="589">
-      <c r="A589" s="26"/>
-      <c r="B589" s="25"/>
+      <c r="A589" s="35"/>
+      <c r="B589" s="34"/>
     </row>
     <row r="590">
-      <c r="A590" s="26"/>
-      <c r="B590" s="25"/>
+      <c r="A590" s="35"/>
+      <c r="B590" s="34"/>
     </row>
     <row r="591">
-      <c r="A591" s="26"/>
-      <c r="B591" s="25"/>
+      <c r="A591" s="35"/>
+      <c r="B591" s="34"/>
     </row>
     <row r="592">
-      <c r="A592" s="26"/>
-      <c r="B592" s="25"/>
+      <c r="A592" s="35"/>
+      <c r="B592" s="34"/>
     </row>
     <row r="593">
-      <c r="A593" s="26"/>
-      <c r="B593" s="25"/>
+      <c r="A593" s="35"/>
+      <c r="B593" s="34"/>
     </row>
     <row r="594">
-      <c r="A594" s="26"/>
-      <c r="B594" s="25"/>
+      <c r="A594" s="35"/>
+      <c r="B594" s="34"/>
     </row>
     <row r="595">
-      <c r="A595" s="26"/>
-      <c r="B595" s="25"/>
+      <c r="A595" s="35"/>
+      <c r="B595" s="34"/>
     </row>
     <row r="596">
-      <c r="A596" s="26"/>
-      <c r="B596" s="25"/>
+      <c r="A596" s="35"/>
+      <c r="B596" s="34"/>
     </row>
     <row r="597">
-      <c r="A597" s="26"/>
-      <c r="B597" s="25"/>
+      <c r="A597" s="35"/>
+      <c r="B597" s="34"/>
     </row>
     <row r="598">
-      <c r="A598" s="26"/>
-      <c r="B598" s="25"/>
+      <c r="A598" s="35"/>
+      <c r="B598" s="34"/>
     </row>
     <row r="599">
-      <c r="A599" s="26"/>
-      <c r="B599" s="25"/>
+      <c r="A599" s="35"/>
+      <c r="B599" s="34"/>
     </row>
     <row r="600">
-      <c r="A600" s="26"/>
-      <c r="B600" s="25"/>
+      <c r="A600" s="35"/>
+      <c r="B600" s="34"/>
     </row>
     <row r="601">
-      <c r="A601" s="26"/>
-      <c r="B601" s="25"/>
+      <c r="A601" s="35"/>
+      <c r="B601" s="34"/>
     </row>
     <row r="602">
-      <c r="A602" s="26"/>
-      <c r="B602" s="25"/>
+      <c r="A602" s="35"/>
+      <c r="B602" s="34"/>
     </row>
     <row r="603">
-      <c r="A603" s="26"/>
-      <c r="B603" s="25"/>
+      <c r="A603" s="35"/>
+      <c r="B603" s="34"/>
     </row>
     <row r="604">
-      <c r="A604" s="26"/>
-      <c r="B604" s="25"/>
+      <c r="A604" s="35"/>
+      <c r="B604" s="34"/>
     </row>
     <row r="605">
-      <c r="A605" s="26"/>
-      <c r="B605" s="25"/>
+      <c r="A605" s="35"/>
+      <c r="B605" s="34"/>
     </row>
     <row r="606">
-      <c r="A606" s="26"/>
-      <c r="B606" s="25"/>
+      <c r="A606" s="35"/>
+      <c r="B606" s="34"/>
     </row>
     <row r="607">
-      <c r="A607" s="26"/>
-      <c r="B607" s="25"/>
+      <c r="A607" s="35"/>
+      <c r="B607" s="34"/>
     </row>
     <row r="608">
-      <c r="A608" s="26"/>
-      <c r="B608" s="25"/>
+      <c r="A608" s="35"/>
+      <c r="B608" s="34"/>
     </row>
     <row r="609">
-      <c r="A609" s="26"/>
-      <c r="B609" s="25"/>
+      <c r="A609" s="35"/>
+      <c r="B609" s="34"/>
     </row>
     <row r="610">
-      <c r="A610" s="26"/>
-      <c r="B610" s="25"/>
+      <c r="A610" s="35"/>
+      <c r="B610" s="34"/>
     </row>
     <row r="611">
-      <c r="A611" s="26"/>
-      <c r="B611" s="25"/>
+      <c r="A611" s="35"/>
+      <c r="B611" s="34"/>
     </row>
     <row r="612">
-      <c r="A612" s="26"/>
-      <c r="B612" s="25"/>
+      <c r="A612" s="35"/>
+      <c r="B612" s="34"/>
     </row>
     <row r="613">
-      <c r="A613" s="26"/>
-      <c r="B613" s="25"/>
+      <c r="A613" s="35"/>
+      <c r="B613" s="34"/>
     </row>
     <row r="614">
-      <c r="A614" s="26"/>
-      <c r="B614" s="25"/>
+      <c r="A614" s="35"/>
+      <c r="B614" s="34"/>
     </row>
     <row r="615">
-      <c r="A615" s="26"/>
-      <c r="B615" s="25"/>
+      <c r="A615" s="35"/>
+      <c r="B615" s="34"/>
     </row>
     <row r="616">
-      <c r="A616" s="26"/>
-      <c r="B616" s="25"/>
+      <c r="A616" s="35"/>
+      <c r="B616" s="34"/>
     </row>
     <row r="617">
-      <c r="A617" s="26"/>
-      <c r="B617" s="25"/>
+      <c r="A617" s="35"/>
+      <c r="B617" s="34"/>
     </row>
     <row r="618">
-      <c r="A618" s="26"/>
-      <c r="B618" s="25"/>
+      <c r="A618" s="35"/>
+      <c r="B618" s="34"/>
     </row>
     <row r="619">
-      <c r="A619" s="26"/>
-      <c r="B619" s="25"/>
+      <c r="A619" s="35"/>
+      <c r="B619" s="34"/>
     </row>
     <row r="620">
-      <c r="A620" s="26"/>
-      <c r="B620" s="25"/>
+      <c r="A620" s="35"/>
+      <c r="B620" s="34"/>
     </row>
     <row r="621">
-      <c r="A621" s="26"/>
-      <c r="B621" s="25"/>
+      <c r="A621" s="35"/>
+      <c r="B621" s="34"/>
     </row>
     <row r="622">
-      <c r="A622" s="26"/>
-      <c r="B622" s="25"/>
+      <c r="A622" s="35"/>
+      <c r="B622" s="34"/>
     </row>
     <row r="623">
-      <c r="A623" s="26"/>
-      <c r="B623" s="25"/>
+      <c r="A623" s="35"/>
+      <c r="B623" s="34"/>
     </row>
     <row r="624">
-      <c r="A624" s="26"/>
-      <c r="B624" s="25"/>
+      <c r="A624" s="35"/>
+      <c r="B624" s="34"/>
     </row>
     <row r="625">
-      <c r="A625" s="26"/>
-      <c r="B625" s="25"/>
+      <c r="A625" s="35"/>
+      <c r="B625" s="34"/>
     </row>
     <row r="626">
-      <c r="A626" s="26"/>
-      <c r="B626" s="25"/>
+      <c r="A626" s="35"/>
+      <c r="B626" s="34"/>
     </row>
     <row r="627">
-      <c r="A627" s="26"/>
-      <c r="B627" s="25"/>
+      <c r="A627" s="35"/>
+      <c r="B627" s="34"/>
     </row>
     <row r="628">
-      <c r="A628" s="26"/>
-      <c r="B628" s="25"/>
+      <c r="A628" s="35"/>
+      <c r="B628" s="34"/>
     </row>
     <row r="629">
-      <c r="A629" s="26"/>
-      <c r="B629" s="25"/>
+      <c r="A629" s="35"/>
+      <c r="B629" s="34"/>
     </row>
     <row r="630">
-      <c r="A630" s="26"/>
-      <c r="B630" s="25"/>
+      <c r="A630" s="35"/>
+      <c r="B630" s="34"/>
     </row>
     <row r="631">
-      <c r="A631" s="26"/>
-      <c r="B631" s="25"/>
+      <c r="A631" s="35"/>
+      <c r="B631" s="34"/>
     </row>
     <row r="632">
-      <c r="A632" s="26"/>
-      <c r="B632" s="25"/>
+      <c r="A632" s="35"/>
+      <c r="B632" s="34"/>
     </row>
     <row r="633">
-      <c r="A633" s="26"/>
-      <c r="B633" s="25"/>
+      <c r="A633" s="35"/>
+      <c r="B633" s="34"/>
     </row>
     <row r="634">
-      <c r="A634" s="26"/>
-      <c r="B634" s="25"/>
+      <c r="A634" s="35"/>
+      <c r="B634" s="34"/>
     </row>
     <row r="635">
-      <c r="A635" s="26"/>
-      <c r="B635" s="25"/>
+      <c r="A635" s="35"/>
+      <c r="B635" s="34"/>
     </row>
     <row r="636">
-      <c r="A636" s="26"/>
-      <c r="B636" s="25"/>
+      <c r="A636" s="35"/>
+      <c r="B636" s="34"/>
     </row>
     <row r="637">
-      <c r="A637" s="26"/>
-      <c r="B637" s="25"/>
+      <c r="A637" s="35"/>
+      <c r="B637" s="34"/>
     </row>
     <row r="638">
-      <c r="A638" s="26"/>
-      <c r="B638" s="25"/>
+      <c r="A638" s="35"/>
+      <c r="B638" s="34"/>
     </row>
     <row r="639">
-      <c r="A639" s="26"/>
-      <c r="B639" s="25"/>
+      <c r="A639" s="35"/>
+      <c r="B639" s="34"/>
     </row>
     <row r="640">
-      <c r="A640" s="26"/>
-      <c r="B640" s="25"/>
+      <c r="A640" s="35"/>
+      <c r="B640" s="34"/>
     </row>
     <row r="641">
-      <c r="A641" s="26"/>
-      <c r="B641" s="25"/>
+      <c r="A641" s="35"/>
+      <c r="B641" s="34"/>
     </row>
     <row r="642">
-      <c r="A642" s="26"/>
-      <c r="B642" s="25"/>
+      <c r="A642" s="35"/>
+      <c r="B642" s="34"/>
     </row>
     <row r="643">
-      <c r="A643" s="26"/>
-      <c r="B643" s="25"/>
+      <c r="A643" s="35"/>
+      <c r="B643" s="34"/>
     </row>
     <row r="644">
-      <c r="A644" s="26"/>
-      <c r="B644" s="25"/>
+      <c r="A644" s="35"/>
+      <c r="B644" s="34"/>
     </row>
     <row r="645">
-      <c r="A645" s="26"/>
-      <c r="B645" s="25"/>
+      <c r="A645" s="35"/>
+      <c r="B645" s="34"/>
     </row>
     <row r="646">
-      <c r="A646" s="26"/>
-      <c r="B646" s="25"/>
+      <c r="A646" s="35"/>
+      <c r="B646" s="34"/>
     </row>
     <row r="647">
-      <c r="A647" s="26"/>
-      <c r="B647" s="25"/>
+      <c r="A647" s="35"/>
+      <c r="B647" s="34"/>
     </row>
     <row r="648">
-      <c r="A648" s="26"/>
-      <c r="B648" s="25"/>
+      <c r="A648" s="35"/>
+      <c r="B648" s="34"/>
     </row>
     <row r="649">
-      <c r="A649" s="26"/>
-      <c r="B649" s="25"/>
+      <c r="A649" s="35"/>
+      <c r="B649" s="34"/>
     </row>
     <row r="650">
-      <c r="A650" s="26"/>
-      <c r="B650" s="25"/>
+      <c r="A650" s="35"/>
+      <c r="B650" s="34"/>
     </row>
     <row r="651">
-      <c r="A651" s="26"/>
-      <c r="B651" s="25"/>
+      <c r="A651" s="35"/>
+      <c r="B651" s="34"/>
     </row>
     <row r="652">
-      <c r="A652" s="26"/>
-      <c r="B652" s="25"/>
+      <c r="A652" s="35"/>
+      <c r="B652" s="34"/>
     </row>
     <row r="653">
-      <c r="A653" s="26"/>
-      <c r="B653" s="25"/>
+      <c r="A653" s="35"/>
+      <c r="B653" s="34"/>
     </row>
     <row r="654">
-      <c r="A654" s="26"/>
-      <c r="B654" s="25"/>
+      <c r="A654" s="35"/>
+      <c r="B654" s="34"/>
     </row>
     <row r="655">
-      <c r="A655" s="26"/>
-      <c r="B655" s="25"/>
+      <c r="A655" s="35"/>
+      <c r="B655" s="34"/>
     </row>
     <row r="656">
-      <c r="A656" s="26"/>
-      <c r="B656" s="25"/>
+      <c r="A656" s="35"/>
+      <c r="B656" s="34"/>
     </row>
     <row r="657">
-      <c r="A657" s="26"/>
-      <c r="B657" s="25"/>
+      <c r="A657" s="35"/>
+      <c r="B657" s="34"/>
     </row>
     <row r="658">
-      <c r="A658" s="26"/>
-      <c r="B658" s="25"/>
+      <c r="A658" s="35"/>
+      <c r="B658" s="34"/>
     </row>
     <row r="659">
-      <c r="A659" s="26"/>
-      <c r="B659" s="25"/>
+      <c r="A659" s="35"/>
+      <c r="B659" s="34"/>
     </row>
     <row r="660">
-      <c r="A660" s="26"/>
-      <c r="B660" s="25"/>
+      <c r="A660" s="35"/>
+      <c r="B660" s="34"/>
     </row>
     <row r="661">
-      <c r="A661" s="26"/>
-      <c r="B661" s="25"/>
+      <c r="A661" s="35"/>
+      <c r="B661" s="34"/>
     </row>
     <row r="662">
-      <c r="A662" s="26"/>
-      <c r="B662" s="25"/>
+      <c r="A662" s="35"/>
+      <c r="B662" s="34"/>
     </row>
     <row r="663">
-      <c r="A663" s="26"/>
-      <c r="B663" s="25"/>
+      <c r="A663" s="35"/>
+      <c r="B663" s="34"/>
     </row>
     <row r="664">
-      <c r="A664" s="26"/>
-      <c r="B664" s="25"/>
+      <c r="A664" s="35"/>
+      <c r="B664" s="34"/>
     </row>
     <row r="665">
-      <c r="A665" s="26"/>
-      <c r="B665" s="25"/>
+      <c r="A665" s="35"/>
+      <c r="B665" s="34"/>
     </row>
     <row r="666">
-      <c r="A666" s="26"/>
-      <c r="B666" s="25"/>
+      <c r="A666" s="35"/>
+      <c r="B666" s="34"/>
     </row>
     <row r="667">
-      <c r="A667" s="26"/>
-      <c r="B667" s="25"/>
+      <c r="A667" s="35"/>
+      <c r="B667" s="34"/>
     </row>
     <row r="668">
-      <c r="A668" s="26"/>
-      <c r="B668" s="25"/>
+      <c r="A668" s="35"/>
+      <c r="B668" s="34"/>
     </row>
     <row r="669">
-      <c r="A669" s="26"/>
-      <c r="B669" s="25"/>
+      <c r="A669" s="35"/>
+      <c r="B669" s="34"/>
     </row>
     <row r="670">
-      <c r="A670" s="26"/>
-      <c r="B670" s="25"/>
+      <c r="A670" s="35"/>
+      <c r="B670" s="34"/>
     </row>
     <row r="671">
-      <c r="A671" s="26"/>
-      <c r="B671" s="25"/>
+      <c r="A671" s="35"/>
+      <c r="B671" s="34"/>
     </row>
     <row r="672">
-      <c r="A672" s="26"/>
-      <c r="B672" s="25"/>
+      <c r="A672" s="35"/>
+      <c r="B672" s="34"/>
     </row>
     <row r="673">
-      <c r="A673" s="26"/>
-      <c r="B673" s="25"/>
+      <c r="A673" s="35"/>
+      <c r="B673" s="34"/>
     </row>
     <row r="674">
-      <c r="A674" s="26"/>
-      <c r="B674" s="25"/>
+      <c r="A674" s="35"/>
+      <c r="B674" s="34"/>
     </row>
     <row r="675">
-      <c r="A675" s="26"/>
-      <c r="B675" s="25"/>
+      <c r="A675" s="35"/>
+      <c r="B675" s="34"/>
     </row>
     <row r="676">
-      <c r="A676" s="26"/>
-      <c r="B676" s="25"/>
+      <c r="A676" s="35"/>
+      <c r="B676" s="34"/>
     </row>
     <row r="677">
-      <c r="A677" s="26"/>
-      <c r="B677" s="25"/>
+      <c r="A677" s="35"/>
+      <c r="B677" s="34"/>
     </row>
     <row r="678">
-      <c r="A678" s="26"/>
-      <c r="B678" s="25"/>
+      <c r="A678" s="35"/>
+      <c r="B678" s="34"/>
     </row>
     <row r="679">
-      <c r="A679" s="26"/>
-      <c r="B679" s="25"/>
+      <c r="A679" s="35"/>
+      <c r="B679" s="34"/>
     </row>
     <row r="680">
-      <c r="A680" s="26"/>
-      <c r="B680" s="25"/>
+      <c r="A680" s="35"/>
+      <c r="B680" s="34"/>
     </row>
     <row r="681">
-      <c r="A681" s="26"/>
-      <c r="B681" s="25"/>
+      <c r="A681" s="35"/>
+      <c r="B681" s="34"/>
     </row>
     <row r="682">
-      <c r="A682" s="26"/>
-      <c r="B682" s="25"/>
+      <c r="A682" s="35"/>
+      <c r="B682" s="34"/>
     </row>
     <row r="683">
-      <c r="A683" s="26"/>
-      <c r="B683" s="25"/>
+      <c r="A683" s="35"/>
+      <c r="B683" s="34"/>
     </row>
     <row r="684">
-      <c r="A684" s="26"/>
-      <c r="B684" s="25"/>
+      <c r="A684" s="35"/>
+      <c r="B684" s="34"/>
     </row>
     <row r="685">
-      <c r="A685" s="26"/>
-      <c r="B685" s="25"/>
+      <c r="A685" s="35"/>
+      <c r="B685" s="34"/>
     </row>
     <row r="686">
-      <c r="A686" s="26"/>
-      <c r="B686" s="25"/>
+      <c r="A686" s="35"/>
+      <c r="B686" s="34"/>
     </row>
     <row r="687">
-      <c r="A687" s="26"/>
-      <c r="B687" s="25"/>
+      <c r="A687" s="35"/>
+      <c r="B687" s="34"/>
     </row>
     <row r="688">
-      <c r="A688" s="26"/>
-      <c r="B688" s="25"/>
+      <c r="A688" s="35"/>
+      <c r="B688" s="34"/>
     </row>
     <row r="689">
-      <c r="A689" s="26"/>
-      <c r="B689" s="25"/>
+      <c r="A689" s="35"/>
+      <c r="B689" s="34"/>
     </row>
     <row r="690">
-      <c r="A690" s="26"/>
-      <c r="B690" s="25"/>
+      <c r="A690" s="35"/>
+      <c r="B690" s="34"/>
     </row>
     <row r="691">
-      <c r="A691" s="26"/>
-      <c r="B691" s="25"/>
+      <c r="A691" s="35"/>
+      <c r="B691" s="34"/>
     </row>
     <row r="692">
-      <c r="A692" s="26"/>
-      <c r="B692" s="25"/>
+      <c r="A692" s="35"/>
+      <c r="B692" s="34"/>
     </row>
     <row r="693">
-      <c r="A693" s="26"/>
-      <c r="B693" s="25"/>
+      <c r="A693" s="35"/>
+      <c r="B693" s="34"/>
     </row>
     <row r="694">
-      <c r="A694" s="26"/>
-      <c r="B694" s="25"/>
+      <c r="A694" s="35"/>
+      <c r="B694" s="34"/>
     </row>
     <row r="695">
-      <c r="A695" s="26"/>
-      <c r="B695" s="25"/>
+      <c r="A695" s="35"/>
+      <c r="B695" s="34"/>
     </row>
     <row r="696">
-      <c r="A696" s="26"/>
-      <c r="B696" s="25"/>
+      <c r="A696" s="35"/>
+      <c r="B696" s="34"/>
     </row>
     <row r="697">
-      <c r="A697" s="26"/>
-      <c r="B697" s="25"/>
+      <c r="A697" s="35"/>
+      <c r="B697" s="34"/>
     </row>
     <row r="698">
-      <c r="A698" s="26"/>
-      <c r="B698" s="25"/>
+      <c r="A698" s="35"/>
+      <c r="B698" s="34"/>
     </row>
     <row r="699">
-      <c r="A699" s="26"/>
-      <c r="B699" s="25"/>
+      <c r="A699" s="35"/>
+      <c r="B699" s="34"/>
     </row>
     <row r="700">
-      <c r="A700" s="26"/>
-      <c r="B700" s="25"/>
+      <c r="A700" s="35"/>
+      <c r="B700" s="34"/>
     </row>
     <row r="701">
-      <c r="A701" s="26"/>
-      <c r="B701" s="25"/>
+      <c r="A701" s="35"/>
+      <c r="B701" s="34"/>
     </row>
     <row r="702">
-      <c r="A702" s="26"/>
-      <c r="B702" s="25"/>
+      <c r="A702" s="35"/>
+      <c r="B702" s="34"/>
     </row>
     <row r="703">
-      <c r="A703" s="26"/>
-      <c r="B703" s="25"/>
+      <c r="A703" s="35"/>
+      <c r="B703" s="34"/>
     </row>
     <row r="704">
-      <c r="A704" s="26"/>
-      <c r="B704" s="25"/>
+      <c r="A704" s="35"/>
+      <c r="B704" s="34"/>
     </row>
     <row r="705">
-      <c r="A705" s="26"/>
-      <c r="B705" s="25"/>
+      <c r="A705" s="35"/>
+      <c r="B705" s="34"/>
     </row>
     <row r="706">
-      <c r="A706" s="26"/>
-      <c r="B706" s="25"/>
+      <c r="A706" s="35"/>
+      <c r="B706" s="34"/>
     </row>
     <row r="707">
-      <c r="A707" s="26"/>
-      <c r="B707" s="25"/>
+      <c r="A707" s="35"/>
+      <c r="B707" s="34"/>
     </row>
     <row r="708">
-      <c r="A708" s="26"/>
-      <c r="B708" s="25"/>
+      <c r="A708" s="35"/>
+      <c r="B708" s="34"/>
     </row>
     <row r="709">
-      <c r="A709" s="26"/>
-      <c r="B709" s="25"/>
+      <c r="A709" s="35"/>
+      <c r="B709" s="34"/>
     </row>
     <row r="710">
-      <c r="A710" s="26"/>
-      <c r="B710" s="25"/>
+      <c r="A710" s="35"/>
+      <c r="B710" s="34"/>
     </row>
     <row r="711">
-      <c r="A711" s="26"/>
-      <c r="B711" s="25"/>
+      <c r="A711" s="35"/>
+      <c r="B711" s="34"/>
     </row>
     <row r="712">
-      <c r="A712" s="26"/>
-      <c r="B712" s="25"/>
+      <c r="A712" s="35"/>
+      <c r="B712" s="34"/>
     </row>
     <row r="713">
-      <c r="A713" s="26"/>
-      <c r="B713" s="25"/>
+      <c r="A713" s="35"/>
+      <c r="B713" s="34"/>
     </row>
     <row r="714">
-      <c r="A714" s="26"/>
-      <c r="B714" s="25"/>
+      <c r="A714" s="35"/>
+      <c r="B714" s="34"/>
     </row>
     <row r="715">
-      <c r="A715" s="26"/>
-      <c r="B715" s="25"/>
+      <c r="A715" s="35"/>
+      <c r="B715" s="34"/>
     </row>
     <row r="716">
-      <c r="A716" s="26"/>
-      <c r="B716" s="25"/>
+      <c r="A716" s="35"/>
+      <c r="B716" s="34"/>
     </row>
     <row r="717">
-      <c r="A717" s="26"/>
-      <c r="B717" s="25"/>
+      <c r="A717" s="35"/>
+      <c r="B717" s="34"/>
     </row>
     <row r="718">
-      <c r="A718" s="26"/>
-      <c r="B718" s="25"/>
+      <c r="A718" s="35"/>
+      <c r="B718" s="34"/>
     </row>
     <row r="719">
-      <c r="A719" s="26"/>
-      <c r="B719" s="25"/>
+      <c r="A719" s="35"/>
+      <c r="B719" s="34"/>
     </row>
     <row r="720">
-      <c r="A720" s="26"/>
-      <c r="B720" s="25"/>
+      <c r="A720" s="35"/>
+      <c r="B720" s="34"/>
     </row>
     <row r="721">
-      <c r="A721" s="26"/>
-      <c r="B721" s="25"/>
+      <c r="A721" s="35"/>
+      <c r="B721" s="34"/>
     </row>
     <row r="722">
-      <c r="A722" s="26"/>
-      <c r="B722" s="25"/>
+      <c r="A722" s="35"/>
+      <c r="B722" s="34"/>
     </row>
     <row r="723">
-      <c r="A723" s="26"/>
-      <c r="B723" s="25"/>
+      <c r="A723" s="35"/>
+      <c r="B723" s="34"/>
     </row>
     <row r="724">
-      <c r="A724" s="26"/>
-      <c r="B724" s="25"/>
+      <c r="A724" s="35"/>
+      <c r="B724" s="34"/>
     </row>
     <row r="725">
-      <c r="A725" s="26"/>
-      <c r="B725" s="25"/>
+      <c r="A725" s="35"/>
+      <c r="B725" s="34"/>
     </row>
     <row r="726">
-      <c r="A726" s="26"/>
-      <c r="B726" s="25"/>
+      <c r="A726" s="35"/>
+      <c r="B726" s="34"/>
     </row>
     <row r="727">
-      <c r="A727" s="26"/>
-      <c r="B727" s="25"/>
+      <c r="A727" s="35"/>
+      <c r="B727" s="34"/>
     </row>
     <row r="728">
-      <c r="A728" s="26"/>
-      <c r="B728" s="25"/>
+      <c r="A728" s="35"/>
+      <c r="B728" s="34"/>
     </row>
     <row r="729">
-      <c r="A729" s="26"/>
-      <c r="B729" s="25"/>
+      <c r="A729" s="35"/>
+      <c r="B729" s="34"/>
     </row>
     <row r="730">
-      <c r="A730" s="26"/>
-      <c r="B730" s="25"/>
+      <c r="A730" s="35"/>
+      <c r="B730" s="34"/>
     </row>
     <row r="731">
-      <c r="A731" s="26"/>
-      <c r="B731" s="25"/>
+      <c r="A731" s="35"/>
+      <c r="B731" s="34"/>
     </row>
     <row r="732">
-      <c r="A732" s="26"/>
-      <c r="B732" s="25"/>
+      <c r="A732" s="35"/>
+      <c r="B732" s="34"/>
     </row>
     <row r="733">
-      <c r="A733" s="26"/>
-      <c r="B733" s="25"/>
+      <c r="A733" s="35"/>
+      <c r="B733" s="34"/>
     </row>
     <row r="734">
-      <c r="A734" s="26"/>
-      <c r="B734" s="25"/>
+      <c r="A734" s="35"/>
+      <c r="B734" s="34"/>
     </row>
     <row r="735">
-      <c r="A735" s="26"/>
-      <c r="B735" s="25"/>
+      <c r="A735" s="35"/>
+      <c r="B735" s="34"/>
     </row>
     <row r="736">
-      <c r="A736" s="26"/>
-      <c r="B736" s="25"/>
+      <c r="A736" s="35"/>
+      <c r="B736" s="34"/>
     </row>
     <row r="737">
-      <c r="A737" s="26"/>
-      <c r="B737" s="25"/>
+      <c r="A737" s="35"/>
+      <c r="B737" s="34"/>
     </row>
     <row r="738">
-      <c r="A738" s="26"/>
-      <c r="B738" s="25"/>
+      <c r="A738" s="35"/>
+      <c r="B738" s="34"/>
     </row>
     <row r="739">
-      <c r="A739" s="26"/>
-      <c r="B739" s="25"/>
+      <c r="A739" s="35"/>
+      <c r="B739" s="34"/>
     </row>
     <row r="740">
-      <c r="A740" s="26"/>
-      <c r="B740" s="25"/>
+      <c r="A740" s="35"/>
+      <c r="B740" s="34"/>
     </row>
     <row r="741">
-      <c r="A741" s="26"/>
-      <c r="B741" s="25"/>
+      <c r="A741" s="35"/>
+      <c r="B741" s="34"/>
     </row>
     <row r="742">
-      <c r="A742" s="26"/>
-      <c r="B742" s="25"/>
+      <c r="A742" s="35"/>
+      <c r="B742" s="34"/>
     </row>
     <row r="743">
-      <c r="A743" s="26"/>
-      <c r="B743" s="25"/>
+      <c r="A743" s="35"/>
+      <c r="B743" s="34"/>
     </row>
     <row r="744">
-      <c r="A744" s="26"/>
-      <c r="B744" s="25"/>
+      <c r="A744" s="35"/>
+      <c r="B744" s="34"/>
     </row>
     <row r="745">
-      <c r="A745" s="26"/>
-      <c r="B745" s="25"/>
+      <c r="A745" s="35"/>
+      <c r="B745" s="34"/>
     </row>
     <row r="746">
-      <c r="A746" s="26"/>
-      <c r="B746" s="25"/>
+      <c r="A746" s="35"/>
+      <c r="B746" s="34"/>
     </row>
     <row r="747">
-      <c r="A747" s="26"/>
-      <c r="B747" s="25"/>
+      <c r="A747" s="35"/>
+      <c r="B747" s="34"/>
     </row>
     <row r="748">
-      <c r="A748" s="26"/>
-      <c r="B748" s="25"/>
+      <c r="A748" s="35"/>
+      <c r="B748" s="34"/>
     </row>
     <row r="749">
-      <c r="A749" s="26"/>
-      <c r="B749" s="25"/>
+      <c r="A749" s="35"/>
+      <c r="B749" s="34"/>
     </row>
     <row r="750">
-      <c r="A750" s="26"/>
-      <c r="B750" s="25"/>
+      <c r="A750" s="35"/>
+      <c r="B750" s="34"/>
     </row>
     <row r="751">
-      <c r="A751" s="26"/>
-      <c r="B751" s="25"/>
+      <c r="A751" s="35"/>
+      <c r="B751" s="34"/>
     </row>
     <row r="752">
-      <c r="A752" s="26"/>
-      <c r="B752" s="25"/>
+      <c r="A752" s="35"/>
+      <c r="B752" s="34"/>
     </row>
     <row r="753">
-      <c r="A753" s="26"/>
-      <c r="B753" s="25"/>
+      <c r="A753" s="35"/>
+      <c r="B753" s="34"/>
     </row>
     <row r="754">
-      <c r="A754" s="26"/>
-      <c r="B754" s="25"/>
+      <c r="A754" s="35"/>
+      <c r="B754" s="34"/>
     </row>
     <row r="755">
-      <c r="A755" s="26"/>
-      <c r="B755" s="25"/>
+      <c r="A755" s="35"/>
+      <c r="B755" s="34"/>
     </row>
     <row r="756">
-      <c r="A756" s="26"/>
-      <c r="B756" s="25"/>
+      <c r="A756" s="35"/>
+      <c r="B756" s="34"/>
     </row>
     <row r="757">
-      <c r="A757" s="26"/>
-      <c r="B757" s="25"/>
+      <c r="A757" s="35"/>
+      <c r="B757" s="34"/>
     </row>
     <row r="758">
-      <c r="A758" s="26"/>
-      <c r="B758" s="25"/>
+      <c r="A758" s="35"/>
+      <c r="B758" s="34"/>
     </row>
     <row r="759">
-      <c r="A759" s="26"/>
-      <c r="B759" s="25"/>
+      <c r="A759" s="35"/>
+      <c r="B759" s="34"/>
     </row>
     <row r="760">
-      <c r="A760" s="26"/>
-      <c r="B760" s="25"/>
+      <c r="A760" s="35"/>
+      <c r="B760" s="34"/>
     </row>
     <row r="761">
-      <c r="A761" s="26"/>
-      <c r="B761" s="25"/>
+      <c r="A761" s="35"/>
+      <c r="B761" s="34"/>
     </row>
     <row r="762">
-      <c r="A762" s="26"/>
-      <c r="B762" s="25"/>
+      <c r="A762" s="35"/>
+      <c r="B762" s="34"/>
     </row>
     <row r="763">
-      <c r="A763" s="26"/>
-      <c r="B763" s="25"/>
+      <c r="A763" s="35"/>
+      <c r="B763" s="34"/>
     </row>
     <row r="764">
-      <c r="A764" s="26"/>
-      <c r="B764" s="25"/>
+      <c r="A764" s="35"/>
+      <c r="B764" s="34"/>
     </row>
     <row r="765">
-      <c r="A765" s="26"/>
-      <c r="B765" s="25"/>
+      <c r="A765" s="35"/>
+      <c r="B765" s="34"/>
     </row>
     <row r="766">
-      <c r="A766" s="26"/>
-      <c r="B766" s="25"/>
+      <c r="A766" s="35"/>
+      <c r="B766" s="34"/>
     </row>
     <row r="767">
-      <c r="A767" s="26"/>
-      <c r="B767" s="25"/>
+      <c r="A767" s="35"/>
+      <c r="B767" s="34"/>
     </row>
     <row r="768">
-      <c r="A768" s="26"/>
-      <c r="B768" s="25"/>
+      <c r="A768" s="35"/>
+      <c r="B768" s="34"/>
     </row>
     <row r="769">
-      <c r="A769" s="26"/>
-      <c r="B769" s="25"/>
+      <c r="A769" s="35"/>
+      <c r="B769" s="34"/>
     </row>
     <row r="770">
-      <c r="A770" s="26"/>
-      <c r="B770" s="25"/>
+      <c r="A770" s="35"/>
+      <c r="B770" s="34"/>
     </row>
     <row r="771">
-      <c r="A771" s="26"/>
-      <c r="B771" s="25"/>
+      <c r="A771" s="35"/>
+      <c r="B771" s="34"/>
     </row>
     <row r="772">
-      <c r="A772" s="26"/>
-      <c r="B772" s="25"/>
+      <c r="A772" s="35"/>
+      <c r="B772" s="34"/>
     </row>
     <row r="773">
-      <c r="A773" s="26"/>
-      <c r="B773" s="25"/>
+      <c r="A773" s="35"/>
+      <c r="B773" s="34"/>
     </row>
     <row r="774">
-      <c r="A774" s="26"/>
-      <c r="B774" s="25"/>
+      <c r="A774" s="35"/>
+      <c r="B774" s="34"/>
     </row>
     <row r="775">
-      <c r="A775" s="26"/>
-      <c r="B775" s="25"/>
+      <c r="A775" s="35"/>
+      <c r="B775" s="34"/>
     </row>
     <row r="776">
-      <c r="A776" s="26"/>
-      <c r="B776" s="25"/>
+      <c r="A776" s="35"/>
+      <c r="B776" s="34"/>
     </row>
     <row r="777">
-      <c r="A777" s="26"/>
-      <c r="B777" s="25"/>
+      <c r="A777" s="35"/>
+      <c r="B777" s="34"/>
     </row>
     <row r="778">
-      <c r="A778" s="26"/>
-      <c r="B778" s="25"/>
+      <c r="A778" s="35"/>
+      <c r="B778" s="34"/>
     </row>
     <row r="779">
-      <c r="A779" s="26"/>
-      <c r="B779" s="25"/>
+      <c r="A779" s="35"/>
+      <c r="B779" s="34"/>
     </row>
     <row r="780">
-      <c r="A780" s="26"/>
-      <c r="B780" s="25"/>
+      <c r="A780" s="35"/>
+      <c r="B780" s="34"/>
     </row>
     <row r="781">
-      <c r="A781" s="26"/>
-      <c r="B781" s="25"/>
+      <c r="A781" s="35"/>
+      <c r="B781" s="34"/>
     </row>
     <row r="782">
-      <c r="A782" s="26"/>
-      <c r="B782" s="25"/>
+      <c r="A782" s="35"/>
+      <c r="B782" s="34"/>
     </row>
     <row r="783">
-      <c r="A783" s="26"/>
-      <c r="B783" s="25"/>
+      <c r="A783" s="35"/>
+      <c r="B783" s="34"/>
     </row>
     <row r="784">
-      <c r="A784" s="26"/>
-      <c r="B784" s="25"/>
+      <c r="A784" s="35"/>
+      <c r="B784" s="34"/>
     </row>
     <row r="785">
-      <c r="A785" s="26"/>
-      <c r="B785" s="25"/>
+      <c r="A785" s="35"/>
+      <c r="B785" s="34"/>
     </row>
     <row r="786">
-      <c r="A786" s="26"/>
-      <c r="B786" s="25"/>
+      <c r="A786" s="35"/>
+      <c r="B786" s="34"/>
     </row>
     <row r="787">
-      <c r="A787" s="26"/>
-      <c r="B787" s="25"/>
+      <c r="A787" s="35"/>
+      <c r="B787" s="34"/>
     </row>
     <row r="788">
-      <c r="A788" s="26"/>
-      <c r="B788" s="25"/>
+      <c r="A788" s="35"/>
+      <c r="B788" s="34"/>
     </row>
     <row r="789">
-      <c r="A789" s="26"/>
-      <c r="B789" s="25"/>
+      <c r="A789" s="35"/>
+      <c r="B789" s="34"/>
     </row>
     <row r="790">
-      <c r="A790" s="26"/>
-      <c r="B790" s="25"/>
+      <c r="A790" s="35"/>
+      <c r="B790" s="34"/>
     </row>
     <row r="791">
-      <c r="A791" s="26"/>
-      <c r="B791" s="25"/>
+      <c r="A791" s="35"/>
+      <c r="B791" s="34"/>
     </row>
     <row r="792">
-      <c r="A792" s="26"/>
-      <c r="B792" s="25"/>
+      <c r="A792" s="35"/>
+      <c r="B792" s="34"/>
     </row>
     <row r="793">
-      <c r="A793" s="26"/>
-      <c r="B793" s="25"/>
+      <c r="A793" s="35"/>
+      <c r="B793" s="34"/>
     </row>
     <row r="794">
-      <c r="A794" s="26"/>
-      <c r="B794" s="25"/>
+      <c r="A794" s="35"/>
+      <c r="B794" s="34"/>
     </row>
     <row r="795">
-      <c r="A795" s="26"/>
-      <c r="B795" s="25"/>
+      <c r="A795" s="35"/>
+      <c r="B795" s="34"/>
     </row>
     <row r="796">
-      <c r="A796" s="26"/>
-      <c r="B796" s="25"/>
+      <c r="A796" s="35"/>
+      <c r="B796" s="34"/>
     </row>
     <row r="797">
-      <c r="A797" s="26"/>
-      <c r="B797" s="25"/>
+      <c r="A797" s="35"/>
+      <c r="B797" s="34"/>
     </row>
     <row r="798">
-      <c r="A798" s="26"/>
-      <c r="B798" s="25"/>
+      <c r="A798" s="35"/>
+      <c r="B798" s="34"/>
     </row>
     <row r="799">
-      <c r="A799" s="26"/>
-      <c r="B799" s="25"/>
+      <c r="A799" s="35"/>
+      <c r="B799" s="34"/>
     </row>
     <row r="800">
-      <c r="A800" s="26"/>
-      <c r="B800" s="25"/>
+      <c r="A800" s="35"/>
+      <c r="B800" s="34"/>
     </row>
     <row r="801">
-      <c r="A801" s="26"/>
-      <c r="B801" s="25"/>
+      <c r="A801" s="35"/>
+      <c r="B801" s="34"/>
     </row>
     <row r="802">
-      <c r="A802" s="26"/>
-      <c r="B802" s="25"/>
+      <c r="A802" s="35"/>
+      <c r="B802" s="34"/>
     </row>
     <row r="803">
-      <c r="A803" s="26"/>
-      <c r="B803" s="25"/>
+      <c r="A803" s="35"/>
+      <c r="B803" s="34"/>
     </row>
     <row r="804">
-      <c r="A804" s="26"/>
-      <c r="B804" s="25"/>
+      <c r="A804" s="35"/>
+      <c r="B804" s="34"/>
     </row>
     <row r="805">
-      <c r="A805" s="26"/>
-      <c r="B805" s="25"/>
+      <c r="A805" s="35"/>
+      <c r="B805" s="34"/>
     </row>
     <row r="806">
-      <c r="A806" s="26"/>
-      <c r="B806" s="25"/>
+      <c r="A806" s="35"/>
+      <c r="B806" s="34"/>
     </row>
     <row r="807">
-      <c r="A807" s="26"/>
-      <c r="B807" s="25"/>
+      <c r="A807" s="35"/>
+      <c r="B807" s="34"/>
     </row>
     <row r="808">
-      <c r="A808" s="26"/>
-      <c r="B808" s="25"/>
+      <c r="A808" s="35"/>
+      <c r="B808" s="34"/>
     </row>
     <row r="809">
-      <c r="A809" s="26"/>
-      <c r="B809" s="25"/>
+      <c r="A809" s="35"/>
+      <c r="B809" s="34"/>
     </row>
     <row r="810">
-      <c r="A810" s="26"/>
-      <c r="B810" s="25"/>
+      <c r="A810" s="35"/>
+      <c r="B810" s="34"/>
     </row>
     <row r="811">
-      <c r="A811" s="26"/>
-      <c r="B811" s="25"/>
+      <c r="A811" s="35"/>
+      <c r="B811" s="34"/>
     </row>
     <row r="812">
-      <c r="A812" s="26"/>
-      <c r="B812" s="25"/>
+      <c r="A812" s="35"/>
+      <c r="B812" s="34"/>
     </row>
     <row r="813">
-      <c r="A813" s="26"/>
-      <c r="B813" s="25"/>
+      <c r="A813" s="35"/>
+      <c r="B813" s="34"/>
     </row>
     <row r="814">
-      <c r="A814" s="26"/>
-      <c r="B814" s="25"/>
+      <c r="A814" s="35"/>
+      <c r="B814" s="34"/>
     </row>
     <row r="815">
-      <c r="A815" s="26"/>
-      <c r="B815" s="25"/>
+      <c r="A815" s="35"/>
+      <c r="B815" s="34"/>
     </row>
     <row r="816">
-      <c r="A816" s="26"/>
-      <c r="B816" s="25"/>
+      <c r="A816" s="35"/>
+      <c r="B816" s="34"/>
     </row>
     <row r="817">
-      <c r="A817" s="26"/>
-      <c r="B817" s="25"/>
+      <c r="A817" s="35"/>
+      <c r="B817" s="34"/>
     </row>
     <row r="818">
-      <c r="A818" s="26"/>
-      <c r="B818" s="25"/>
+      <c r="A818" s="35"/>
+      <c r="B818" s="34"/>
     </row>
     <row r="819">
-      <c r="A819" s="26"/>
-      <c r="B819" s="25"/>
+      <c r="A819" s="35"/>
+      <c r="B819" s="34"/>
     </row>
     <row r="820">
-      <c r="A820" s="26"/>
-      <c r="B820" s="25"/>
+      <c r="A820" s="35"/>
+      <c r="B820" s="34"/>
     </row>
     <row r="821">
-      <c r="A821" s="26"/>
-      <c r="B821" s="25"/>
+      <c r="A821" s="35"/>
+      <c r="B821" s="34"/>
     </row>
     <row r="822">
-      <c r="A822" s="26"/>
-      <c r="B822" s="25"/>
+      <c r="A822" s="35"/>
+      <c r="B822" s="34"/>
     </row>
     <row r="823">
-      <c r="A823" s="26"/>
-      <c r="B823" s="25"/>
+      <c r="A823" s="35"/>
+      <c r="B823" s="34"/>
     </row>
     <row r="824">
-      <c r="A824" s="26"/>
-      <c r="B824" s="25"/>
+      <c r="A824" s="35"/>
+      <c r="B824" s="34"/>
     </row>
     <row r="825">
-      <c r="A825" s="26"/>
-      <c r="B825" s="25"/>
+      <c r="A825" s="35"/>
+      <c r="B825" s="34"/>
     </row>
     <row r="826">
-      <c r="A826" s="26"/>
-      <c r="B826" s="25"/>
+      <c r="A826" s="35"/>
+      <c r="B826" s="34"/>
     </row>
     <row r="827">
-      <c r="A827" s="26"/>
-      <c r="B827" s="25"/>
+      <c r="A827" s="35"/>
+      <c r="B827" s="34"/>
     </row>
     <row r="828">
-      <c r="A828" s="26"/>
-      <c r="B828" s="25"/>
+      <c r="A828" s="35"/>
+      <c r="B828" s="34"/>
     </row>
     <row r="829">
-      <c r="A829" s="26"/>
-      <c r="B829" s="25"/>
+      <c r="A829" s="35"/>
+      <c r="B829" s="34"/>
     </row>
     <row r="830">
-      <c r="A830" s="26"/>
-      <c r="B830" s="25"/>
+      <c r="A830" s="35"/>
+      <c r="B830" s="34"/>
     </row>
     <row r="831">
-      <c r="A831" s="26"/>
-      <c r="B831" s="25"/>
+      <c r="A831" s="35"/>
+      <c r="B831" s="34"/>
     </row>
     <row r="832">
-      <c r="A832" s="26"/>
-      <c r="B832" s="25"/>
+      <c r="A832" s="35"/>
+      <c r="B832" s="34"/>
     </row>
     <row r="833">
-      <c r="A833" s="26"/>
-      <c r="B833" s="25"/>
+      <c r="A833" s="35"/>
+      <c r="B833" s="34"/>
     </row>
     <row r="834">
-      <c r="A834" s="26"/>
-      <c r="B834" s="25"/>
+      <c r="A834" s="35"/>
+      <c r="B834" s="34"/>
     </row>
     <row r="835">
-      <c r="A835" s="26"/>
-      <c r="B835" s="25"/>
+      <c r="A835" s="35"/>
+      <c r="B835" s="34"/>
     </row>
     <row r="836">
-      <c r="A836" s="26"/>
-      <c r="B836" s="25"/>
+      <c r="A836" s="35"/>
+      <c r="B836" s="34"/>
     </row>
     <row r="837">
-      <c r="A837" s="26"/>
-      <c r="B837" s="25"/>
+      <c r="A837" s="35"/>
+      <c r="B837" s="34"/>
     </row>
     <row r="838">
-      <c r="A838" s="26"/>
-      <c r="B838" s="25"/>
+      <c r="A838" s="35"/>
+      <c r="B838" s="34"/>
     </row>
     <row r="839">
-      <c r="A839" s="26"/>
-      <c r="B839" s="25"/>
+      <c r="A839" s="35"/>
+      <c r="B839" s="34"/>
     </row>
     <row r="840">
-      <c r="A840" s="26"/>
-      <c r="B840" s="25"/>
+      <c r="A840" s="35"/>
+      <c r="B840" s="34"/>
     </row>
     <row r="841">
-      <c r="A841" s="26"/>
-      <c r="B841" s="25"/>
+      <c r="A841" s="35"/>
+      <c r="B841" s="34"/>
     </row>
     <row r="842">
-      <c r="A842" s="26"/>
-      <c r="B842" s="25"/>
+      <c r="A842" s="35"/>
+      <c r="B842" s="34"/>
     </row>
     <row r="843">
-      <c r="A843" s="26"/>
-      <c r="B843" s="25"/>
+      <c r="A843" s="35"/>
+      <c r="B843" s="34"/>
     </row>
     <row r="844">
-      <c r="A844" s="26"/>
-      <c r="B844" s="25"/>
+      <c r="A844" s="35"/>
+      <c r="B844" s="34"/>
     </row>
     <row r="845">
-      <c r="A845" s="26"/>
-      <c r="B845" s="25"/>
+      <c r="A845" s="35"/>
+      <c r="B845" s="34"/>
     </row>
     <row r="846">
-      <c r="A846" s="26"/>
-      <c r="B846" s="25"/>
+      <c r="A846" s="35"/>
+      <c r="B846" s="34"/>
     </row>
     <row r="847">
-      <c r="A847" s="26"/>
-      <c r="B847" s="25"/>
+      <c r="A847" s="35"/>
+      <c r="B847" s="34"/>
     </row>
     <row r="848">
-      <c r="A848" s="26"/>
-      <c r="B848" s="25"/>
+      <c r="A848" s="35"/>
+      <c r="B848" s="34"/>
     </row>
     <row r="849">
-      <c r="A849" s="26"/>
-      <c r="B849" s="25"/>
+      <c r="A849" s="35"/>
+      <c r="B849" s="34"/>
     </row>
     <row r="850">
-      <c r="A850" s="26"/>
-      <c r="B850" s="25"/>
+      <c r="A850" s="35"/>
+      <c r="B850" s="34"/>
     </row>
     <row r="851">
-      <c r="A851" s="26"/>
-      <c r="B851" s="25"/>
+      <c r="A851" s="35"/>
+      <c r="B851" s="34"/>
     </row>
     <row r="852">
-      <c r="A852" s="26"/>
-      <c r="B852" s="25"/>
+      <c r="A852" s="35"/>
+      <c r="B852" s="34"/>
     </row>
     <row r="853">
-      <c r="A853" s="26"/>
-      <c r="B853" s="25"/>
+      <c r="A853" s="35"/>
+      <c r="B853" s="34"/>
     </row>
     <row r="854">
-      <c r="A854" s="26"/>
-      <c r="B854" s="25"/>
+      <c r="A854" s="35"/>
+      <c r="B854" s="34"/>
     </row>
     <row r="855">
-      <c r="A855" s="26"/>
-      <c r="B855" s="25"/>
+      <c r="A855" s="35"/>
+      <c r="B855" s="34"/>
     </row>
     <row r="856">
-      <c r="A856" s="26"/>
-      <c r="B856" s="25"/>
+      <c r="A856" s="35"/>
+      <c r="B856" s="34"/>
     </row>
     <row r="857">
-      <c r="A857" s="26"/>
-      <c r="B857" s="25"/>
+      <c r="A857" s="35"/>
+      <c r="B857" s="34"/>
     </row>
     <row r="858">
-      <c r="A858" s="26"/>
-      <c r="B858" s="25"/>
+      <c r="A858" s="35"/>
+      <c r="B858" s="34"/>
     </row>
     <row r="859">
-      <c r="A859" s="26"/>
-      <c r="B859" s="25"/>
+      <c r="A859" s="35"/>
+      <c r="B859" s="34"/>
     </row>
     <row r="860">
-      <c r="A860" s="26"/>
-      <c r="B860" s="25"/>
+      <c r="A860" s="35"/>
+      <c r="B860" s="34"/>
     </row>
     <row r="861">
-      <c r="A861" s="26"/>
-      <c r="B861" s="25"/>
+      <c r="A861" s="35"/>
+      <c r="B861" s="34"/>
     </row>
     <row r="862">
-      <c r="A862" s="26"/>
-      <c r="B862" s="25"/>
+      <c r="A862" s="35"/>
+      <c r="B862" s="34"/>
     </row>
     <row r="863">
-      <c r="A863" s="26"/>
-      <c r="B863" s="25"/>
+      <c r="A863" s="35"/>
+      <c r="B863" s="34"/>
     </row>
     <row r="864">
-      <c r="A864" s="26"/>
-      <c r="B864" s="25"/>
+      <c r="A864" s="35"/>
+      <c r="B864" s="34"/>
     </row>
     <row r="865">
-      <c r="A865" s="26"/>
-      <c r="B865" s="25"/>
+      <c r="A865" s="35"/>
+      <c r="B865" s="34"/>
     </row>
     <row r="866">
-      <c r="A866" s="26"/>
-      <c r="B866" s="25"/>
+      <c r="A866" s="35"/>
+      <c r="B866" s="34"/>
     </row>
     <row r="867">
-      <c r="A867" s="26"/>
-      <c r="B867" s="25"/>
+      <c r="A867" s="35"/>
+      <c r="B867" s="34"/>
     </row>
     <row r="868">
-      <c r="A868" s="26"/>
-      <c r="B868" s="25"/>
+      <c r="A868" s="35"/>
+      <c r="B868" s="34"/>
     </row>
     <row r="869">
-      <c r="A869" s="26"/>
-      <c r="B869" s="25"/>
+      <c r="A869" s="35"/>
+      <c r="B869" s="34"/>
     </row>
     <row r="870">
-      <c r="A870" s="26"/>
-      <c r="B870" s="25"/>
+      <c r="A870" s="35"/>
+      <c r="B870" s="34"/>
     </row>
     <row r="871">
-      <c r="A871" s="26"/>
-      <c r="B871" s="25"/>
+      <c r="A871" s="35"/>
+      <c r="B871" s="34"/>
     </row>
     <row r="872">
-      <c r="A872" s="26"/>
-      <c r="B872" s="25"/>
+      <c r="A872" s="35"/>
+      <c r="B872" s="34"/>
     </row>
     <row r="873">
-      <c r="A873" s="26"/>
-      <c r="B873" s="25"/>
+      <c r="A873" s="35"/>
+      <c r="B873" s="34"/>
     </row>
     <row r="874">
-      <c r="A874" s="26"/>
-      <c r="B874" s="25"/>
+      <c r="A874" s="35"/>
+      <c r="B874" s="34"/>
     </row>
     <row r="875">
-      <c r="A875" s="26"/>
-      <c r="B875" s="25"/>
+      <c r="A875" s="35"/>
+      <c r="B875" s="34"/>
     </row>
     <row r="876">
-      <c r="A876" s="26"/>
-      <c r="B876" s="25"/>
+      <c r="A876" s="35"/>
+      <c r="B876" s="34"/>
     </row>
     <row r="877">
-      <c r="A877" s="26"/>
-      <c r="B877" s="25"/>
+      <c r="A877" s="35"/>
+      <c r="B877" s="34"/>
     </row>
     <row r="878">
-      <c r="A878" s="26"/>
-      <c r="B878" s="25"/>
+      <c r="A878" s="35"/>
+      <c r="B878" s="34"/>
     </row>
     <row r="879">
-      <c r="A879" s="26"/>
-      <c r="B879" s="25"/>
+      <c r="A879" s="35"/>
+      <c r="B879" s="34"/>
     </row>
     <row r="880">
-      <c r="A880" s="26"/>
-      <c r="B880" s="25"/>
+      <c r="A880" s="35"/>
+      <c r="B880" s="34"/>
     </row>
     <row r="881">
-      <c r="A881" s="26"/>
-      <c r="B881" s="25"/>
+      <c r="A881" s="35"/>
+      <c r="B881" s="34"/>
     </row>
     <row r="882">
-      <c r="A882" s="26"/>
-      <c r="B882" s="25"/>
+      <c r="A882" s="35"/>
+      <c r="B882" s="34"/>
     </row>
     <row r="883">
-      <c r="A883" s="26"/>
-      <c r="B883" s="25"/>
+      <c r="A883" s="35"/>
+      <c r="B883" s="34"/>
     </row>
     <row r="884">
-      <c r="A884" s="26"/>
-      <c r="B884" s="25"/>
+      <c r="A884" s="35"/>
+      <c r="B884" s="34"/>
     </row>
     <row r="885">
-      <c r="A885" s="26"/>
-      <c r="B885" s="25"/>
+      <c r="A885" s="35"/>
+      <c r="B885" s="34"/>
     </row>
     <row r="886">
-      <c r="A886" s="26"/>
-      <c r="B886" s="25"/>
+      <c r="A886" s="35"/>
+      <c r="B886" s="34"/>
     </row>
     <row r="887">
-      <c r="A887" s="26"/>
-      <c r="B887" s="25"/>
+      <c r="A887" s="35"/>
+      <c r="B887" s="34"/>
     </row>
     <row r="888">
-      <c r="A888" s="26"/>
-      <c r="B888" s="25"/>
+      <c r="A888" s="35"/>
+      <c r="B888" s="34"/>
     </row>
     <row r="889">
-      <c r="A889" s="26"/>
-      <c r="B889" s="25"/>
+      <c r="A889" s="35"/>
+      <c r="B889" s="34"/>
     </row>
     <row r="890">
-      <c r="A890" s="26"/>
-      <c r="B890" s="25"/>
+      <c r="A890" s="35"/>
+      <c r="B890" s="34"/>
     </row>
     <row r="891">
-      <c r="A891" s="26"/>
-      <c r="B891" s="25"/>
+      <c r="A891" s="35"/>
+      <c r="B891" s="34"/>
     </row>
     <row r="892">
-      <c r="A892" s="26"/>
-      <c r="B892" s="25"/>
+      <c r="A892" s="35"/>
+      <c r="B892" s="34"/>
     </row>
     <row r="893">
-      <c r="A893" s="26"/>
-      <c r="B893" s="25"/>
+      <c r="A893" s="35"/>
+      <c r="B893" s="34"/>
     </row>
     <row r="894">
-      <c r="A894" s="26"/>
-      <c r="B894" s="25"/>
+      <c r="A894" s="35"/>
+      <c r="B894" s="34"/>
     </row>
     <row r="895">
-      <c r="A895" s="26"/>
-      <c r="B895" s="25"/>
+      <c r="A895" s="35"/>
+      <c r="B895" s="34"/>
     </row>
     <row r="896">
-      <c r="A896" s="26"/>
-      <c r="B896" s="25"/>
+      <c r="A896" s="35"/>
+      <c r="B896" s="34"/>
     </row>
     <row r="897">
-      <c r="A897" s="26"/>
-      <c r="B897" s="25"/>
+      <c r="A897" s="35"/>
+      <c r="B897" s="34"/>
     </row>
     <row r="898">
-      <c r="A898" s="26"/>
-      <c r="B898" s="25"/>
+      <c r="A898" s="35"/>
+      <c r="B898" s="34"/>
     </row>
     <row r="899">
-      <c r="A899" s="26"/>
-      <c r="B899" s="25"/>
+      <c r="A899" s="35"/>
+      <c r="B899" s="34"/>
     </row>
     <row r="900">
-      <c r="A900" s="26"/>
-      <c r="B900" s="25"/>
+      <c r="A900" s="35"/>
+      <c r="B900" s="34"/>
     </row>
     <row r="901">
-      <c r="A901" s="26"/>
-      <c r="B901" s="25"/>
+      <c r="A901" s="35"/>
+      <c r="B901" s="34"/>
     </row>
     <row r="902">
-      <c r="A902" s="26"/>
-      <c r="B902" s="25"/>
+      <c r="A902" s="35"/>
+      <c r="B902" s="34"/>
     </row>
     <row r="903">
-      <c r="A903" s="26"/>
-      <c r="B903" s="25"/>
+      <c r="A903" s="35"/>
+      <c r="B903" s="34"/>
     </row>
     <row r="904">
-      <c r="A904" s="26"/>
-      <c r="B904" s="25"/>
+      <c r="A904" s="35"/>
+      <c r="B904" s="34"/>
     </row>
     <row r="905">
-      <c r="A905" s="26"/>
-      <c r="B905" s="25"/>
+      <c r="A905" s="35"/>
+      <c r="B905" s="34"/>
     </row>
     <row r="906">
-      <c r="A906" s="26"/>
-      <c r="B906" s="25"/>
+      <c r="A906" s="35"/>
+      <c r="B906" s="34"/>
     </row>
     <row r="907">
-      <c r="A907" s="26"/>
-      <c r="B907" s="25"/>
+      <c r="A907" s="35"/>
+      <c r="B907" s="34"/>
     </row>
     <row r="908">
-      <c r="A908" s="26"/>
-      <c r="B908" s="25"/>
+      <c r="A908" s="35"/>
+      <c r="B908" s="34"/>
     </row>
     <row r="909">
-      <c r="A909" s="26"/>
-      <c r="B909" s="25"/>
+      <c r="A909" s="35"/>
+      <c r="B909" s="34"/>
     </row>
     <row r="910">
-      <c r="A910" s="26"/>
-      <c r="B910" s="25"/>
+      <c r="A910" s="35"/>
+      <c r="B910" s="34"/>
     </row>
     <row r="911">
-      <c r="A911" s="26"/>
-      <c r="B911" s="25"/>
+      <c r="A911" s="35"/>
+      <c r="B911" s="34"/>
     </row>
     <row r="912">
-      <c r="A912" s="26"/>
-      <c r="B912" s="25"/>
+      <c r="A912" s="35"/>
+      <c r="B912" s="34"/>
     </row>
     <row r="913">
-      <c r="A913" s="26"/>
-      <c r="B913" s="25"/>
+      <c r="A913" s="35"/>
+      <c r="B913" s="34"/>
     </row>
     <row r="914">
-      <c r="A914" s="26"/>
-      <c r="B914" s="25"/>
+      <c r="A914" s="35"/>
+      <c r="B914" s="34"/>
     </row>
     <row r="915">
-      <c r="A915" s="26"/>
-      <c r="B915" s="25"/>
+      <c r="A915" s="35"/>
+      <c r="B915" s="34"/>
     </row>
     <row r="916">
-      <c r="A916" s="26"/>
-      <c r="B916" s="25"/>
+      <c r="A916" s="35"/>
+      <c r="B916" s="34"/>
     </row>
     <row r="917">
-      <c r="A917" s="26"/>
-      <c r="B917" s="25"/>
+      <c r="A917" s="35"/>
+      <c r="B917" s="34"/>
     </row>
     <row r="918">
-      <c r="A918" s="26"/>
-      <c r="B918" s="25"/>
+      <c r="A918" s="35"/>
+      <c r="B918" s="34"/>
     </row>
     <row r="919">
-      <c r="A919" s="26"/>
-      <c r="B919" s="25"/>
+      <c r="A919" s="35"/>
+      <c r="B919" s="34"/>
     </row>
     <row r="920">
-      <c r="A920" s="26"/>
-      <c r="B920" s="25"/>
+      <c r="A920" s="35"/>
+      <c r="B920" s="34"/>
     </row>
     <row r="921">
-      <c r="A921" s="26"/>
-      <c r="B921" s="25"/>
+      <c r="A921" s="35"/>
+      <c r="B921" s="34"/>
     </row>
     <row r="922">
-      <c r="A922" s="26"/>
-      <c r="B922" s="25"/>
+      <c r="A922" s="35"/>
+      <c r="B922" s="34"/>
     </row>
     <row r="923">
-      <c r="A923" s="26"/>
-      <c r="B923" s="25"/>
+      <c r="A923" s="35"/>
+      <c r="B923" s="34"/>
     </row>
     <row r="924">
-      <c r="A924" s="26"/>
-      <c r="B924" s="25"/>
+      <c r="A924" s="35"/>
+      <c r="B924" s="34"/>
     </row>
     <row r="925">
-      <c r="A925" s="26"/>
-      <c r="B925" s="25"/>
+      <c r="A925" s="35"/>
+      <c r="B925" s="34"/>
     </row>
     <row r="926">
-      <c r="A926" s="26"/>
-      <c r="B926" s="25"/>
+      <c r="A926" s="35"/>
+      <c r="B926" s="34"/>
     </row>
     <row r="927">
-      <c r="A927" s="26"/>
-      <c r="B927" s="25"/>
+      <c r="A927" s="35"/>
+      <c r="B927" s="34"/>
     </row>
     <row r="928">
-      <c r="A928" s="26"/>
-      <c r="B928" s="25"/>
+      <c r="A928" s="35"/>
+      <c r="B928" s="34"/>
     </row>
     <row r="929">
-      <c r="A929" s="26"/>
-      <c r="B929" s="25"/>
+      <c r="A929" s="35"/>
+      <c r="B929" s="34"/>
     </row>
     <row r="930">
-      <c r="A930" s="26"/>
-      <c r="B930" s="25"/>
+      <c r="A930" s="35"/>
+      <c r="B930" s="34"/>
     </row>
     <row r="931">
-      <c r="A931" s="26"/>
-      <c r="B931" s="25"/>
+      <c r="A931" s="35"/>
+      <c r="B931" s="34"/>
     </row>
     <row r="932">
-      <c r="A932" s="26"/>
-      <c r="B932" s="25"/>
+      <c r="A932" s="35"/>
+      <c r="B932" s="34"/>
     </row>
     <row r="933">
-      <c r="A933" s="26"/>
-      <c r="B933" s="25"/>
+      <c r="A933" s="35"/>
+      <c r="B933" s="34"/>
     </row>
     <row r="934">
-      <c r="A934" s="26"/>
-      <c r="B934" s="25"/>
+      <c r="A934" s="35"/>
+      <c r="B934" s="34"/>
     </row>
     <row r="935">
-      <c r="A935" s="26"/>
-      <c r="B935" s="25"/>
+      <c r="A935" s="35"/>
+      <c r="B935" s="34"/>
     </row>
     <row r="936">
-      <c r="A936" s="26"/>
-      <c r="B936" s="25"/>
+      <c r="A936" s="35"/>
+      <c r="B936" s="34"/>
     </row>
     <row r="937">
-      <c r="A937" s="26"/>
-      <c r="B937" s="25"/>
+      <c r="A937" s="35"/>
+      <c r="B937" s="34"/>
     </row>
     <row r="938">
-      <c r="A938" s="26"/>
-      <c r="B938" s="25"/>
+      <c r="A938" s="35"/>
+      <c r="B938" s="34"/>
     </row>
     <row r="939">
-      <c r="A939" s="26"/>
-      <c r="B939" s="25"/>
+      <c r="A939" s="35"/>
+      <c r="B939" s="34"/>
     </row>
     <row r="940">
-      <c r="A940" s="26"/>
-      <c r="B940" s="25"/>
+      <c r="A940" s="35"/>
+      <c r="B940" s="34"/>
     </row>
     <row r="941">
-      <c r="A941" s="26"/>
-      <c r="B941" s="25"/>
+      <c r="A941" s="35"/>
+      <c r="B941" s="34"/>
     </row>
     <row r="942">
-      <c r="A942" s="26"/>
-      <c r="B942" s="25"/>
+      <c r="A942" s="35"/>
+      <c r="B942" s="34"/>
     </row>
     <row r="943">
-      <c r="A943" s="26"/>
-      <c r="B943" s="25"/>
+      <c r="A943" s="35"/>
+      <c r="B943" s="34"/>
     </row>
     <row r="944">
-      <c r="A944" s="26"/>
-      <c r="B944" s="25"/>
+      <c r="A944" s="35"/>
+      <c r="B944" s="34"/>
     </row>
     <row r="945">
-      <c r="A945" s="26"/>
-      <c r="B945" s="25"/>
+      <c r="A945" s="35"/>
+      <c r="B945" s="34"/>
     </row>
     <row r="946">
-      <c r="A946" s="26"/>
-      <c r="B946" s="25"/>
+      <c r="A946" s="35"/>
+      <c r="B946" s="34"/>
     </row>
     <row r="947">
-      <c r="A947" s="26"/>
-      <c r="B947" s="25"/>
+      <c r="A947" s="35"/>
+      <c r="B947" s="34"/>
     </row>
     <row r="948">
-      <c r="A948" s="26"/>
-      <c r="B948" s="25"/>
+      <c r="A948" s="35"/>
+      <c r="B948" s="34"/>
     </row>
     <row r="949">
-      <c r="A949" s="26"/>
-      <c r="B949" s="25"/>
+      <c r="A949" s="35"/>
+      <c r="B949" s="34"/>
     </row>
     <row r="950">
-      <c r="A950" s="26"/>
-      <c r="B950" s="25"/>
+      <c r="A950" s="35"/>
+      <c r="B950" s="34"/>
     </row>
     <row r="951">
-      <c r="A951" s="26"/>
-      <c r="B951" s="25"/>
+      <c r="A951" s="35"/>
+      <c r="B951" s="34"/>
     </row>
     <row r="952">
-      <c r="A952" s="26"/>
-      <c r="B952" s="25"/>
+      <c r="A952" s="35"/>
+      <c r="B952" s="34"/>
     </row>
     <row r="953">
-      <c r="A953" s="26"/>
-      <c r="B953" s="25"/>
+      <c r="A953" s="35"/>
+      <c r="B953" s="34"/>
     </row>
     <row r="954">
-      <c r="A954" s="26"/>
-      <c r="B954" s="25"/>
+      <c r="A954" s="35"/>
+      <c r="B954" s="34"/>
     </row>
     <row r="955">
-      <c r="A955" s="26"/>
-      <c r="B955" s="25"/>
+      <c r="A955" s="35"/>
+      <c r="B955" s="34"/>
     </row>
     <row r="956">
-      <c r="A956" s="26"/>
-      <c r="B956" s="25"/>
+      <c r="A956" s="35"/>
+      <c r="B956" s="34"/>
     </row>
     <row r="957">
-      <c r="A957" s="26"/>
-      <c r="B957" s="25"/>
+      <c r="A957" s="35"/>
+      <c r="B957" s="34"/>
     </row>
     <row r="958">
-      <c r="A958" s="26"/>
-      <c r="B958" s="25"/>
+      <c r="A958" s="35"/>
+      <c r="B958" s="34"/>
     </row>
     <row r="959">
-      <c r="A959" s="26"/>
-      <c r="B959" s="25"/>
+      <c r="A959" s="35"/>
+      <c r="B959" s="34"/>
     </row>
     <row r="960">
-      <c r="A960" s="26"/>
-      <c r="B960" s="25"/>
+      <c r="A960" s="35"/>
+      <c r="B960" s="34"/>
     </row>
     <row r="961">
-      <c r="A961" s="26"/>
-      <c r="B961" s="25"/>
+      <c r="A961" s="35"/>
+      <c r="B961" s="34"/>
     </row>
     <row r="962">
-      <c r="A962" s="26"/>
-      <c r="B962" s="25"/>
+      <c r="A962" s="35"/>
+      <c r="B962" s="34"/>
     </row>
     <row r="963">
-      <c r="A963" s="26"/>
-      <c r="B963" s="25"/>
+      <c r="A963" s="35"/>
+      <c r="B963" s="34"/>
     </row>
     <row r="964">
-      <c r="A964" s="26"/>
-      <c r="B964" s="25"/>
+      <c r="A964" s="35"/>
+      <c r="B964" s="34"/>
     </row>
     <row r="965">
-      <c r="A965" s="26"/>
-      <c r="B965" s="25"/>
+      <c r="A965" s="35"/>
+      <c r="B965" s="34"/>
     </row>
     <row r="966">
-      <c r="A966" s="26"/>
-      <c r="B966" s="25"/>
+      <c r="A966" s="35"/>
+      <c r="B966" s="34"/>
     </row>
     <row r="967">
-      <c r="A967" s="26"/>
-      <c r="B967" s="25"/>
+      <c r="A967" s="35"/>
+      <c r="B967" s="34"/>
     </row>
     <row r="968">
-      <c r="A968" s="26"/>
-      <c r="B968" s="25"/>
+      <c r="A968" s="35"/>
+      <c r="B968" s="34"/>
     </row>
     <row r="969">
-      <c r="A969" s="26"/>
-      <c r="B969" s="25"/>
+      <c r="A969" s="35"/>
+      <c r="B969" s="34"/>
     </row>
     <row r="970">
-      <c r="A970" s="26"/>
-      <c r="B970" s="25"/>
+      <c r="A970" s="35"/>
+      <c r="B970" s="34"/>
     </row>
     <row r="971">
-      <c r="A971" s="26"/>
-      <c r="B971" s="25"/>
+      <c r="A971" s="35"/>
+      <c r="B971" s="34"/>
     </row>
     <row r="972">
-      <c r="A972" s="26"/>
-      <c r="B972" s="25"/>
+      <c r="A972" s="35"/>
+      <c r="B972" s="34"/>
     </row>
     <row r="973">
-      <c r="A973" s="26"/>
-      <c r="B973" s="25"/>
+      <c r="A973" s="35"/>
+      <c r="B973" s="34"/>
     </row>
     <row r="974">
-      <c r="A974" s="26"/>
-      <c r="B974" s="25"/>
+      <c r="A974" s="35"/>
+      <c r="B974" s="34"/>
     </row>
     <row r="975">
-      <c r="A975" s="26"/>
-      <c r="B975" s="25"/>
+      <c r="A975" s="35"/>
+      <c r="B975" s="34"/>
     </row>
     <row r="976">
-      <c r="A976" s="26"/>
-      <c r="B976" s="25"/>
+      <c r="A976" s="35"/>
+      <c r="B976" s="34"/>
     </row>
     <row r="977">
-      <c r="A977" s="26"/>
-      <c r="B977" s="25"/>
+      <c r="A977" s="35"/>
+      <c r="B977" s="34"/>
     </row>
     <row r="978">
-      <c r="A978" s="26"/>
-      <c r="B978" s="25"/>
+      <c r="A978" s="35"/>
+      <c r="B978" s="34"/>
     </row>
     <row r="979">
-      <c r="A979" s="26"/>
-      <c r="B979" s="25"/>
+      <c r="A979" s="35"/>
+      <c r="B979" s="34"/>
     </row>
     <row r="980">
-      <c r="A980" s="26"/>
-      <c r="B980" s="25"/>
+      <c r="A980" s="35"/>
+      <c r="B980" s="34"/>
     </row>
     <row r="981">
-      <c r="A981" s="26"/>
-      <c r="B981" s="25"/>
+      <c r="A981" s="35"/>
+      <c r="B981" s="34"/>
     </row>
     <row r="982">
-      <c r="A982" s="26"/>
-      <c r="B982" s="25"/>
+      <c r="A982" s="35"/>
+      <c r="B982" s="34"/>
+    </row>
+    <row r="983">
+      <c r="A983" s="35"/>
+      <c r="B983" s="34"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="35"/>
+      <c r="B984" s="34"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="35"/>
+      <c r="B985" s="34"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="35"/>
+      <c r="B986" s="34"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="35"/>
+      <c r="B987" s="34"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="35"/>
+      <c r="B988" s="34"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="35"/>
+      <c r="B989" s="34"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="35"/>
+      <c r="B990" s="34"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="35"/>
+      <c r="B991" s="34"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="35"/>
+      <c r="B992" s="34"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="35"/>
+      <c r="B993" s="34"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="35"/>
+      <c r="B994" s="34"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="35"/>
+      <c r="B995" s="34"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="35"/>
+      <c r="B996" s="34"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="35"/>
+      <c r="B997" s="34"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="35"/>
+      <c r="B998" s="34"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="35"/>
+      <c r="B999" s="34"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="35"/>
+      <c r="B1000" s="34"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="35"/>
+      <c r="B1001" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A58:A59"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -5077,7 +5342,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{0024008D-005D-4389-9C74-003000FD0093}">
+          <x14:cfRule type="expression" priority="2" id="{002800FC-0072-45A3-87A3-004300840033}">
             <xm:f>$D2:$D47="Failed"</xm:f>
             <x14:dxf>
               <font/>
@@ -5088,18 +5353,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B2:D26 C27:D27 B28:D40</xm:sqref>
+          <xm:sqref>B2:D15 C16:D16 B29:D30 C31:D31 C32:D32 B34:D45 C46:D46 B47:D59 B15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{00320067-00D9-4BBA-94FD-008700890057}">
+          <x14:cfRule type="expression" priority="2" id="{00E70004-00BC-4AF1-A5AD-00B3007F0038}">
             <xm:f>$D2:$D47="Failed"</xm:f>
             <x14:dxf>
               <font/>
@@ -5110,18 +5375,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>C3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{0035006A-0072-4429-9C3E-005D005600E0}">
+          <x14:cfRule type="expression" priority="2" id="{00AB0026-00F3-48D7-BDC7-002500B100FC}">
             <xm:f>$D2:$D47="Failed"</xm:f>
             <x14:dxf>
               <font/>
@@ -5132,18 +5397,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>C4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{00E000DD-003E-45F8-8556-007D00F7002B}">
+          <x14:cfRule type="expression" priority="2" id="{001B00AA-002B-4023-A9D6-007600F900B5}">
             <xm:f>$D2:$D47="Failed"</xm:f>
             <x14:dxf>
               <font/>
@@ -5154,18 +5419,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>C5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{00E70057-0032-4C00-B829-00C600A100A3}">
+          <x14:cfRule type="expression" priority="2" id="{0045000C-00BA-4139-A3E1-007A003C00EB}">
             <xm:f>$D2:$D47="Failed"</xm:f>
             <x14:dxf>
               <font/>
@@ -5176,18 +5441,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>C6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{00830047-00AC-474D-8FD9-00AC00AE00AC}">
+          <x14:cfRule type="expression" priority="2" id="{0016007E-00BB-4C8F-A099-007600E300FC}">
             <xm:f>$D2:$D47="Failed"</xm:f>
             <x14:dxf>
               <font/>
@@ -5198,18 +5463,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>C7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{00EF006C-00EA-43A0-8954-00B4001A001B}">
+          <x14:cfRule type="expression" priority="2" id="{00E30062-008C-4332-B9CE-00A3005B0099}">
             <xm:f>$D2:$D47="Failed"</xm:f>
             <x14:dxf>
               <font/>
@@ -5220,18 +5485,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>C7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{00ED005E-0091-4BEB-81C8-00FB000900BB}">
+          <x14:cfRule type="expression" priority="2" id="{00E300D1-0050-473F-A8F8-00B200940047}">
             <xm:f>$D2:$D47="Failed"</xm:f>
             <x14:dxf>
               <font/>
@@ -5242,18 +5507,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C12</xm:sqref>
+          <xm:sqref>C29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{00420004-0027-4ED8-8527-00AF003F00CA}">
+          <x14:cfRule type="expression" priority="2" id="{00B30017-006E-4C6A-91AC-0042008300DE}">
             <xm:f>$D2:$D47="Failed"</xm:f>
             <x14:dxf>
               <font/>
@@ -5264,18 +5529,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A23</xm:sqref>
+          <xm:sqref>A42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{0036001B-0099-4343-ACA9-009400A6007A}">
+          <x14:cfRule type="expression" priority="2" id="{00D00034-0010-487B-9C2C-006C00A1000D}">
             <xm:f>$D2:$D47="Failed"</xm:f>
             <x14:dxf>
               <font/>
@@ -5286,18 +5551,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C20</xm:sqref>
+          <xm:sqref>C39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{001500B5-00B6-4CBB-8D47-008000CC0071}">
+          <x14:cfRule type="expression" priority="2" id="{0020005C-00A5-43CC-9FD6-0038006900D4}">
             <xm:f>$D2:$D47="Failed"</xm:f>
             <x14:dxf>
               <font/>
@@ -5308,18 +5573,414 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C27</xm:sqref>
+          <xm:sqref>C46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00B000B8-00B1-4005-B641-00E00063004A}">
+          <x14:cfRule type="expression" priority="2" id="{006A0078-0060-49CD-9DB4-002400DE0009}">
+            <xm:f>$D2:$D47="Failed"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFEA9999"/>
+                  <bgColor rgb="FFEA9999"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{00D900A3-00B7-4980-8AEC-00A4000200D4}">
+            <xm:f>$D2:$D47="Failed"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFEA9999"/>
+                  <bgColor rgb="FFEA9999"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{007E00AE-00E4-45FC-AB4D-009D00600033}">
+            <xm:f>$D2:$D47="Failed"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFEA9999"/>
+                  <bgColor rgb="FFEA9999"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{00CB009D-0067-46EE-BBC7-00E900830077}">
+            <xm:f>$D2:$D47="Failed"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFEA9999"/>
+                  <bgColor rgb="FFEA9999"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{00180027-0082-4914-ACF3-00D6007C00C4}">
+            <xm:f>$D2:$D47="Failed"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFEA9999"/>
+                  <bgColor rgb="FFEA9999"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{0021003A-00BC-4EC1-AD86-00A700610095}">
+            <xm:f>$D2:$D47="Failed"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFEA9999"/>
+                  <bgColor rgb="FFEA9999"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B19 B19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{00860075-005F-405C-84E2-001200C80036}">
+            <xm:f>$D2:$D47="Failed"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFEA9999"/>
+                  <bgColor rgb="FFEA9999"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{004A00AC-00FA-4CE0-BD87-00C000500048}">
+            <xm:f>$D2:$D47="Failed"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFEA9999"/>
+                  <bgColor rgb="FFEA9999"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{00550067-00DF-4A5D-9F9B-00D000190040}">
+            <xm:f>$D2:$D47="Failed"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFEA9999"/>
+                  <bgColor rgb="FFEA9999"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{00F20063-00A6-4676-BB65-0054004700E8}">
+            <xm:f>$D2:$D47="Failed"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFEA9999"/>
+                  <bgColor rgb="FFEA9999"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{00520010-00A8-46E1-83D6-00D2008200DD}">
+            <xm:f>$D2:$D47="Failed"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFEA9999"/>
+                  <bgColor rgb="FFEA9999"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{00070011-0085-49EA-B900-00C400790010}">
+            <xm:f>$D2:$D47="Failed"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFEA9999"/>
+                  <bgColor rgb="FFEA9999"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{008900BF-009E-46F0-A294-0018005B0045}">
+            <xm:f>$D2:$D47="Failed"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFEA9999"/>
+                  <bgColor rgb="FFEA9999"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{00B400A7-009C-4EE6-9A71-00B1005C0097}">
+            <xm:f>$D2:$D47="Failed"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFEA9999"/>
+                  <bgColor rgb="FFEA9999"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{00480007-00E8-4CD4-A712-00E5003600F1}">
+            <xm:f>$D2:$D47="Failed"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFEA9999"/>
+                  <bgColor rgb="FFEA9999"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{00680055-0030-4654-A618-00FD00A50096}">
+            <xm:f>$D2:$D47="Failed"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFEA9999"/>
+                  <bgColor rgb="FFEA9999"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{001C00B8-00E9-4C15-86CA-00B800EA009B}">
+            <xm:f>$D2:$D47="Failed"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFEA9999"/>
+                  <bgColor rgb="FFEA9999"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B33 B33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{00D0008C-00C7-4A5B-9490-00C900490068}">
+            <xm:f>$D2:$D47="Failed"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFEA9999"/>
+                  <bgColor rgb="FFEA9999"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00D200E3-0046-497D-917B-0054008B003B}">
             <xm:f>$D2:$D47="Success"</xm:f>
             <x14:dxf>
               <font/>
@@ -5330,18 +5991,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B2:D26 C27:D27 B28:D40</xm:sqref>
+          <xm:sqref>B2:D15 C16:D16 B29:D30 C31:D31 C32:D32 B34:D45 C46:D46 B47:D59 B15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00DC005B-00A3-4798-BF9A-003100BF0011}">
+          <x14:cfRule type="expression" priority="1" id="{00D700FF-0025-4E65-A0B8-0074007D00A4}">
             <xm:f>$D2:$D47="Success"</xm:f>
             <x14:dxf>
               <font/>
@@ -5352,18 +6013,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>C3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00F200AD-0006-4822-A896-0087005B00CA}">
+          <x14:cfRule type="expression" priority="1" id="{007700D8-00E5-4B14-8120-00B8006F0009}">
             <xm:f>$D2:$D47="Success"</xm:f>
             <x14:dxf>
               <font/>
@@ -5374,18 +6035,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>C4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{004E000D-003C-4502-8642-000A005500EB}">
+          <x14:cfRule type="expression" priority="1" id="{00AC009C-004E-4F1B-97AB-00A100B60024}">
             <xm:f>$D2:$D47="Success"</xm:f>
             <x14:dxf>
               <font/>
@@ -5396,18 +6057,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>C5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00D000B3-0006-44CC-81EC-007400ED00DD}">
+          <x14:cfRule type="expression" priority="1" id="{0057002A-00EB-4823-89F8-0026002A0080}">
             <xm:f>$D2:$D47="Success"</xm:f>
             <x14:dxf>
               <font/>
@@ -5418,18 +6079,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>C6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{005E0025-000E-45C9-A7A6-00950009007F}">
+          <x14:cfRule type="expression" priority="1" id="{00BB0097-0089-4266-A8C9-003000A90000}">
             <xm:f>$D2:$D47="Success"</xm:f>
             <x14:dxf>
               <font/>
@@ -5440,18 +6101,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>C7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{006000C3-005D-4274-84C7-00CF00B400A3}">
+          <x14:cfRule type="expression" priority="1" id="{000000AA-00BC-4934-AA80-001E00920059}">
             <xm:f>$D2:$D47="Success"</xm:f>
             <x14:dxf>
               <font/>
@@ -5462,18 +6123,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>C7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{0042003C-00E5-45FE-966B-009A009B0090}">
+          <x14:cfRule type="expression" priority="1" id="{00B1005F-005A-476F-B5AB-0043004A0093}">
             <xm:f>$D2:$D47="Success"</xm:f>
             <x14:dxf>
               <font/>
@@ -5484,18 +6145,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C12</xm:sqref>
+          <xm:sqref>C29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00F60016-00F9-40CA-87EE-0001008F007E}">
+          <x14:cfRule type="expression" priority="1" id="{003F0067-00FE-480F-BB76-006300BB008B}">
             <xm:f>$D2:$D47="Success"</xm:f>
             <x14:dxf>
               <font/>
@@ -5506,18 +6167,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A23</xm:sqref>
+          <xm:sqref>A42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{006F002A-00CF-4CF2-8175-00230006001D}">
+          <x14:cfRule type="expression" priority="1" id="{007C00A5-0087-469F-A230-003900D00073}">
             <xm:f>$D2:$D47="Success"</xm:f>
             <x14:dxf>
               <font/>
@@ -5528,18 +6189,18 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C20</xm:sqref>
+          <xm:sqref>C39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00270026-0005-42C0-8666-00B30099000E}">
+          <x14:cfRule type="expression" priority="1" id="{002000B3-0096-4FBE-BFD3-00F400FA0051}">
             <xm:f>$D2:$D47="Success"</xm:f>
             <x14:dxf>
               <font/>
@@ -5550,181 +6211,691 @@
                 </patternFill>
               </fill>
               <border>
-                <left/>
-                <right/>
-                <top/>
-                <bottom/>
-                <diagonal/>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C27</xm:sqref>
+          <xm:sqref>C46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{0047005C-0013-419F-A476-00B600AE007C}">
+            <xm:f>$D2:$D47="Success"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB6D7A8"/>
+                  <bgColor rgb="FFB6D7A8"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00F1001F-00A8-4C8A-B4D8-001300E50023}">
+            <xm:f>$D2:$D47="Success"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB6D7A8"/>
+                  <bgColor rgb="FFB6D7A8"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{008200B2-0044-4358-94DA-0098009A00C5}">
+            <xm:f>$D2:$D47="Success"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB6D7A8"/>
+                  <bgColor rgb="FFB6D7A8"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{003F007D-009A-4BFA-A201-0042005000BA}">
+            <xm:f>$D2:$D47="Success"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB6D7A8"/>
+                  <bgColor rgb="FFB6D7A8"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00D7001B-00A0-4FF3-BDF6-0002008A00A8}">
+            <xm:f>$D2:$D47="Success"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB6D7A8"/>
+                  <bgColor rgb="FFB6D7A8"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00D700DC-0011-4CDA-A90A-003F0050000F}">
+            <xm:f>$D2:$D47="Success"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB6D7A8"/>
+                  <bgColor rgb="FFB6D7A8"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B19 B19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00340045-00EB-44D9-ACAA-005400B100BE}">
+            <xm:f>$D2:$D47="Success"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB6D7A8"/>
+                  <bgColor rgb="FFB6D7A8"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00C6008F-00F1-4F30-95F0-000E003B005B}">
+            <xm:f>$D2:$D47="Success"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB6D7A8"/>
+                  <bgColor rgb="FFB6D7A8"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00C70024-002A-48B3-8011-0030008500E0}">
+            <xm:f>$D2:$D47="Success"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB6D7A8"/>
+                  <bgColor rgb="FFB6D7A8"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00580025-0060-4447-AEF0-00EF00A50018}">
+            <xm:f>$D2:$D47="Success"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB6D7A8"/>
+                  <bgColor rgb="FFB6D7A8"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00FC00E7-00A2-4B69-B98B-007500BA0026}">
+            <xm:f>$D2:$D47="Success"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB6D7A8"/>
+                  <bgColor rgb="FFB6D7A8"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{001B0071-00C2-4EA8-8488-0062006400FE}">
+            <xm:f>$D2:$D47="Success"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB6D7A8"/>
+                  <bgColor rgb="FFB6D7A8"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00810000-00D8-4626-8CB1-0046004700EA}">
+            <xm:f>$D2:$D47="Success"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB6D7A8"/>
+                  <bgColor rgb="FFB6D7A8"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00DC0083-00BE-421B-8175-0029008C0006}">
+            <xm:f>$D2:$D47="Success"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB6D7A8"/>
+                  <bgColor rgb="FFB6D7A8"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{0041001F-0091-4B52-AF63-0004006000C4}">
+            <xm:f>$D2:$D47="Success"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB6D7A8"/>
+                  <bgColor rgb="FFB6D7A8"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00A800AC-0036-43A9-BAB4-004500720069}">
+            <xm:f>$D2:$D47="Success"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB6D7A8"/>
+                  <bgColor rgb="FFB6D7A8"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{006B0036-00D3-4695-A9BD-004F0079008E}">
+            <xm:f>$D2:$D47="Success"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB6D7A8"/>
+                  <bgColor rgb="FFB6D7A8"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B33 B33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00CB007D-0052-499C-BF80-00F700AC00A1}">
+            <xm:f>$D2:$D47="Success"</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB6D7A8"/>
+                  <bgColor rgb="FFB6D7A8"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none"/>
+                <right style="none"/>
+                <top style="none"/>
+                <bottom style="none"/>
+                <diagonal style="none"/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="27" disablePrompts="0">
-        <x14:dataValidation xr:uid="{009A0009-0019-4D36-A3EB-007800870068}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="46" disablePrompts="0">
+        <x14:dataValidation xr:uid="{006C0075-00E2-4CDA-A61D-000800480061}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
-          <xm:sqref>C2 C28:C40</xm:sqref>
+          <xm:sqref>C2 C47:C59</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C900AB-00F0-4E87-AF73-00CD00310034}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00D400C7-0075-4B7D-A959-00C0000E0065}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Success,Failed"</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D40</xm:sqref>
+          <xm:sqref>D2:D59</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B80032-0050-449B-9530-0022009C00F2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00EF004E-0042-4C48-811E-005000C30096}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F0009E-0066-4D8F-B698-007A00F20012}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{008E009B-0045-4214-ABFA-006000AE00B0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FE003E-0041-4C32-98E9-00EB0001007B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00E30071-00BA-4C4A-999E-0089001D00C5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F20038-0054-4C8A-A39E-002100BB0008}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{0006004A-00A6-476A-A55F-00D900E000BA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00E10005-00F8-484D-AEFB-00DC00B40006}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{007400D0-004E-4D87-A0BA-005300CC00C8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006300F2-00E8-4B68-A288-006D00A700B7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{008B0065-00BE-46C9-ADC9-006D003900FD}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001500A1-00C3-487B-A38D-003C00F200D2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{000F009C-0044-49EA-A9CF-0090008500B8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00180086-008E-4D5B-939A-004500150000}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00A800BD-00F2-4CB9-A7B0-009A008F0030}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0091006A-002F-478E-9F03-009700370061}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00620045-001F-449A-BA79-005F003D00EE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002700EC-00F3-48D3-9B5B-00D400A10005}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{002B0064-00E6-4704-8FD5-002400F6004E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+          <x14:formula1>
+            <xm:f>"High,Medium,Low"</xm:f>
+          </x14:formula1>
+          <xm:sqref>C34</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{0058007D-00A5-4A01-9A97-002300280002}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+          <x14:formula1>
+            <xm:f>"High,Medium,Low"</xm:f>
+          </x14:formula1>
+          <xm:sqref>C35</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{002100A9-0080-44B2-8D33-000B00C4008F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+          <x14:formula1>
+            <xm:f>"High,Medium,Low"</xm:f>
+          </x14:formula1>
+          <xm:sqref>C36</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00200035-00DC-4FC8-A445-007D00BD00CE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+          <x14:formula1>
+            <xm:f>"High,Medium,Low"</xm:f>
+          </x14:formula1>
+          <xm:sqref>C37</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00D6001F-00E4-460C-8108-008F008D006C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+          <x14:formula1>
+            <xm:f>"High,Medium,Low"</xm:f>
+          </x14:formula1>
+          <xm:sqref>C38</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{0027009D-0008-44D9-93E0-004D00B0006A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+          <x14:formula1>
+            <xm:f>"High,Medium,Low"</xm:f>
+          </x14:formula1>
+          <xm:sqref>C39</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00D90096-0079-4C9C-96D1-00330026009E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+          <x14:formula1>
+            <xm:f>"High,Medium,Low"</xm:f>
+          </x14:formula1>
+          <xm:sqref>C40</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00180026-00AE-415B-9805-00B400F50031}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+          <x14:formula1>
+            <xm:f>"High,Medium,Low"</xm:f>
+          </x14:formula1>
+          <xm:sqref>C41</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00F5001E-00E1-4B2B-9449-00B600A5001F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+          <x14:formula1>
+            <xm:f>"High,Medium,Low"</xm:f>
+          </x14:formula1>
+          <xm:sqref>C42</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00E20082-0093-46B8-A191-001300C200BA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+          <x14:formula1>
+            <xm:f>"High,Medium,Low"</xm:f>
+          </x14:formula1>
+          <xm:sqref>C43</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{0038000A-0004-45C1-A970-001A005E0026}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+          <x14:formula1>
+            <xm:f>"High,Medium,Low"</xm:f>
+          </x14:formula1>
+          <xm:sqref>C44</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00B100A2-00BC-4F99-B3A1-000C008C00DE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+          <x14:formula1>
+            <xm:f>"High,Medium,Low"</xm:f>
+          </x14:formula1>
+          <xm:sqref>C45</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00EE00EA-0005-41A7-8082-009F00E6002E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+          <x14:formula1>
+            <xm:f>"High,Medium,Low"</xm:f>
+          </x14:formula1>
+          <xm:sqref>C46</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00F300B6-006E-4FE7-B392-007F000900B8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008800FB-0009-4B98-B600-00B400400074}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00A6008F-004A-4567-8DFA-00C8001300EF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C13</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00E4005D-0004-4782-B290-008100270027}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00530030-002F-44CB-B901-008D002B009F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C14</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0070002B-005D-45E9-B96C-009C000B000C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{002B000A-0077-48C9-A096-005400FA0063}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C15</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00E50052-00EF-4658-B63C-00F700C60005}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00C000C1-00C2-44AE-9DCC-0098002A002D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FE0013-0079-4311-866B-009900D50069}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{008B00AC-0072-44D7-B155-004600EE00C1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C17</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FE0084-0020-4587-B7A5-001D00DA0082}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00660059-002E-4F38-8E0D-0040007A003A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C18</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0027000E-00EA-4AE3-9660-0033001A000E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00120006-0060-43D9-B373-00DD00860084}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004400ED-0044-4880-8C51-001D00FF00BE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00B30029-00B7-4D54-9825-006600D000E0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C20</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002000B3-007D-406F-8EF3-0033009700BA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{004F00EA-00A5-4159-A46A-009B00970064}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C21</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000D00C5-0049-45F3-9E03-00600014001B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{005200A3-00E2-412A-BCAE-002C00200078}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005E00DC-003F-4206-9206-00A3004A006F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{000D0067-00E7-4A1F-9BFB-00400035005A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C23</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00ED0085-005A-47D2-BAC2-008F00350038}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00320078-0074-4623-BE87-00F200A1009B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C24</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009600A1-007C-4939-8DC1-00CC0070006E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{005A00CF-000B-4C34-9C22-00CF00B5009F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C25</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B900E6-00E6-4B4E-A4D2-009400BE00F9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00800098-0072-40E7-B2CB-005900C60021}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00BC005C-00C2-4AD9-8C87-003600850037}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{008300B4-0035-46E2-A11B-008700AC00AD}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"High,Medium,Low"</xm:f>
           </x14:formula1>
           <xm:sqref>C27</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00A70035-0022-4F61-90D8-004300450024}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+          <x14:formula1>
+            <xm:f>"High,Medium,Low"</xm:f>
+          </x14:formula1>
+          <xm:sqref>C28</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{001400E5-00CB-4AB2-B164-00EB00F0003C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+          <x14:formula1>
+            <xm:f>"High,Medium,Low"</xm:f>
+          </x14:formula1>
+          <xm:sqref>C29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{005600C0-0007-48B8-824A-00D0001300FD}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+          <x14:formula1>
+            <xm:f>"High,Medium,Low"</xm:f>
+          </x14:formula1>
+          <xm:sqref>C30</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00DC0075-0071-496C-ADB9-00BA00960045}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+          <x14:formula1>
+            <xm:f>"High,Medium,Low"</xm:f>
+          </x14:formula1>
+          <xm:sqref>C31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{007900E9-00E8-4D57-B302-006100650044}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+          <x14:formula1>
+            <xm:f>"High,Medium,Low"</xm:f>
+          </x14:formula1>
+          <xm:sqref>C32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00E600B4-000E-4619-A117-00F500F20001}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+          <x14:formula1>
+            <xm:f>"High,Medium,Low"</xm:f>
+          </x14:formula1>
+          <xm:sqref>C33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
